--- a/_RESULTS/PCA/Berg_usable_data_pca2.xlsx
+++ b/_RESULTS/PCA/Berg_usable_data_pca2.xlsx
@@ -597,34 +597,34 @@
         <v>5.629596559</v>
       </c>
       <c r="D2">
-        <v>8.691241819935243</v>
+        <v>8.691241819935241</v>
       </c>
       <c r="E2">
-        <v>-5.099496046616485</v>
+        <v>-5.099496046616488</v>
       </c>
       <c r="F2">
-        <v>-2.095296314507128</v>
+        <v>-2.095296314507125</v>
       </c>
       <c r="G2">
-        <v>-6.362898507568794</v>
+        <v>-6.362898507568789</v>
       </c>
       <c r="H2">
-        <v>-0.5981378203307885</v>
+        <v>-0.5981378203308113</v>
       </c>
       <c r="I2">
-        <v>1.229232097648427</v>
+        <v>1.229232097648429</v>
       </c>
       <c r="J2">
-        <v>-0.2043347149488074</v>
+        <v>-0.2043347149488079</v>
       </c>
       <c r="K2">
-        <v>-0.1682297760962863</v>
+        <v>-0.1682297760962868</v>
       </c>
       <c r="L2">
-        <v>0.1403712413033046</v>
+        <v>0.140371241303306</v>
       </c>
       <c r="M2">
-        <v>-1.332267629550188e-15</v>
+        <v>-1.887379141862766e-15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -641,31 +641,31 @@
         <v>5.495156451020017</v>
       </c>
       <c r="E3">
-        <v>3.736870809091646</v>
+        <v>3.736870809091647</v>
       </c>
       <c r="F3">
-        <v>-4.938270467194367</v>
+        <v>-4.938270467194369</v>
       </c>
       <c r="G3">
-        <v>-5.274927991542892</v>
+        <v>-5.274927991542886</v>
       </c>
       <c r="H3">
-        <v>-0.5091717889202667</v>
+        <v>-0.5091717889202835</v>
       </c>
       <c r="I3">
-        <v>-0.6720212425678228</v>
+        <v>-0.672021242567818</v>
       </c>
       <c r="J3">
-        <v>-0.1087099704299248</v>
+        <v>-0.108709970429925</v>
       </c>
       <c r="K3">
-        <v>-0.1572307321675104</v>
+        <v>-0.157230732167511</v>
       </c>
       <c r="L3">
-        <v>-0.04325830408845342</v>
+        <v>-0.0432583040884536</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -682,31 +682,31 @@
         <v>13.05136172484874</v>
       </c>
       <c r="E4">
-        <v>-1.873928284970836</v>
+        <v>-1.873928284970841</v>
       </c>
       <c r="F4">
-        <v>-0.01795268331623377</v>
+        <v>-0.0179526833162309</v>
       </c>
       <c r="G4">
-        <v>1.351496716551407</v>
+        <v>1.351496716551419</v>
       </c>
       <c r="H4">
-        <v>-2.782770757143993</v>
+        <v>-2.782770757143989</v>
       </c>
       <c r="I4">
-        <v>0.5074893918572518</v>
+        <v>0.5074893918572467</v>
       </c>
       <c r="J4">
-        <v>0.2811137839428177</v>
+        <v>0.2811137839428178</v>
       </c>
       <c r="K4">
-        <v>0.1830418331715735</v>
+        <v>0.1830418331715723</v>
       </c>
       <c r="L4">
-        <v>-0.0896809376405012</v>
+        <v>-0.08968093764050078</v>
       </c>
       <c r="M4">
-        <v>-1.77635683940025e-15</v>
+        <v>-1.554312234475219e-15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -723,31 +723,31 @@
         <v>9.709898718844492</v>
       </c>
       <c r="E5">
-        <v>6.233378069929313</v>
+        <v>6.23337806992931</v>
       </c>
       <c r="F5">
-        <v>-2.891137360777211</v>
+        <v>-2.891137360777212</v>
       </c>
       <c r="G5">
-        <v>2.065727095711389</v>
+        <v>2.0657270957114</v>
       </c>
       <c r="H5">
-        <v>-2.390032174924076</v>
+        <v>-2.390032174924067</v>
       </c>
       <c r="I5">
-        <v>-0.807452353595148</v>
+        <v>-0.8074523535951493</v>
       </c>
       <c r="J5">
         <v>0.7369226036267046</v>
       </c>
       <c r="K5">
-        <v>-0.1450864209932857</v>
+        <v>-0.145086420993286</v>
       </c>
       <c r="L5">
-        <v>-0.01460018022100418</v>
+        <v>-0.01460018022100451</v>
       </c>
       <c r="M5">
-        <v>-2.664535259100376e-15</v>
+        <v>9.992007221626409e-16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -764,31 +764,31 @@
         <v>12.62818201387345</v>
       </c>
       <c r="E6">
-        <v>-1.993360119745598</v>
+        <v>-1.993360119745602</v>
       </c>
       <c r="F6">
-        <v>-0.2594989698519667</v>
+        <v>-0.2594989698519626</v>
       </c>
       <c r="G6">
-        <v>1.580788534526694</v>
+        <v>1.5807885345267</v>
       </c>
       <c r="H6">
-        <v>-1.154807840144683</v>
+        <v>-1.154807840144677</v>
       </c>
       <c r="I6">
-        <v>0.2119444684833919</v>
+        <v>0.2119444684833883</v>
       </c>
       <c r="J6">
-        <v>0.1934365340298283</v>
+        <v>0.1934365340298279</v>
       </c>
       <c r="K6">
-        <v>-0.01708562109806036</v>
+        <v>-0.0170856210980607</v>
       </c>
       <c r="L6">
-        <v>-0.03910299344425089</v>
+        <v>-0.03910299344425061</v>
       </c>
       <c r="M6">
-        <v>-8.881784197001252e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -805,31 +805,31 @@
         <v>13.00935168506865</v>
       </c>
       <c r="E7">
-        <v>-2.241450137904612</v>
+        <v>-2.241450137904617</v>
       </c>
       <c r="F7">
-        <v>-0.4400980835877138</v>
+        <v>-0.4400980835877094</v>
       </c>
       <c r="G7">
-        <v>1.57609933465428</v>
+        <v>1.57609933465429</v>
       </c>
       <c r="H7">
-        <v>-2.391795338646054</v>
+        <v>-2.391795338646049</v>
       </c>
       <c r="I7">
-        <v>-0.3383281156754337</v>
+        <v>-0.3383281156754399</v>
       </c>
       <c r="J7">
-        <v>0.02954726118517818</v>
+        <v>0.02954726118517832</v>
       </c>
       <c r="K7">
-        <v>0.03496163616870393</v>
+        <v>0.03496163616870264</v>
       </c>
       <c r="L7">
-        <v>-0.1056845353328132</v>
+        <v>-0.105684535332812</v>
       </c>
       <c r="M7">
-        <v>-8.881784197001252e-16</v>
+        <v>-1.998401444325282e-15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -846,31 +846,31 @@
         <v>11.19797403903054</v>
       </c>
       <c r="E8">
-        <v>-4.541872366075908</v>
+        <v>-4.541872366075911</v>
       </c>
       <c r="F8">
-        <v>-4.43304494611313</v>
+        <v>-4.43304494611312</v>
       </c>
       <c r="G8">
-        <v>4.084519194690176</v>
+        <v>4.084519194690154</v>
       </c>
       <c r="H8">
-        <v>6.800124678717101</v>
+        <v>6.800124678717119</v>
       </c>
       <c r="I8">
         <v>-3.020304684210842</v>
       </c>
       <c r="J8">
-        <v>-1.107810008111651</v>
+        <v>-1.10781000811165</v>
       </c>
       <c r="K8">
-        <v>0.007372769012178709</v>
+        <v>0.007372769012178864</v>
       </c>
       <c r="L8">
-        <v>-0.01615907062850463</v>
+        <v>-0.01615907062850619</v>
       </c>
       <c r="M8">
-        <v>-1.77635683940025e-15</v>
+        <v>-2.664535259100376e-15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -884,34 +884,34 @@
         <v>5.630818913</v>
       </c>
       <c r="D9">
-        <v>7.863014789740779</v>
+        <v>7.863014789740782</v>
       </c>
       <c r="E9">
         <v>11.22132716680988</v>
       </c>
       <c r="F9">
-        <v>1.850051113452545</v>
+        <v>1.850051113452543</v>
       </c>
       <c r="G9">
-        <v>0.5258470650355379</v>
+        <v>0.5258470650355263</v>
       </c>
       <c r="H9">
-        <v>3.903877016848248</v>
+        <v>3.903877016848246</v>
       </c>
       <c r="I9">
-        <v>5.375626169352536</v>
+        <v>5.375626169352548</v>
       </c>
       <c r="J9">
-        <v>-0.5511042633584798</v>
+        <v>-0.5511042633584842</v>
       </c>
       <c r="K9">
-        <v>0.1504882372318886</v>
+        <v>0.1504882372318894</v>
       </c>
       <c r="L9">
-        <v>-0.01686899091936096</v>
+        <v>-0.01686899091935867</v>
       </c>
       <c r="M9">
-        <v>-1.665334536937735e-15</v>
+        <v>2.220446049250313e-15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -928,31 +928,31 @@
         <v>12.79399845737614</v>
       </c>
       <c r="E10">
-        <v>-1.734949726554369</v>
+        <v>-1.734949726554374</v>
       </c>
       <c r="F10">
-        <v>0.1571816513886863</v>
+        <v>0.1571816513886901</v>
       </c>
       <c r="G10">
-        <v>1.385286385162481</v>
+        <v>1.385286385162488</v>
       </c>
       <c r="H10">
-        <v>-1.596107182773779</v>
+        <v>-1.596107182773775</v>
       </c>
       <c r="I10">
-        <v>0.4688096544417712</v>
+        <v>0.4688096544417673</v>
       </c>
       <c r="J10">
-        <v>-0.01732708192080366</v>
+        <v>-0.01732708192080376</v>
       </c>
       <c r="K10">
-        <v>-0.04797633553520574</v>
+        <v>-0.04797633553520717</v>
       </c>
       <c r="L10">
-        <v>0.0126724508528967</v>
+        <v>0.01267245085289748</v>
       </c>
       <c r="M10">
-        <v>-2.664535259100376e-15</v>
+        <v>-1.77635683940025e-15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -969,31 +969,31 @@
         <v>-5.161171444836664</v>
       </c>
       <c r="E11">
-        <v>-0.1321979086423894</v>
+        <v>-0.132197908642388</v>
       </c>
       <c r="F11">
-        <v>0.373398800843941</v>
+        <v>0.3733988008439394</v>
       </c>
       <c r="G11">
-        <v>0.424305866081379</v>
+        <v>0.4243058660813731</v>
       </c>
       <c r="H11">
-        <v>1.316673299384657</v>
+        <v>1.316673299384659</v>
       </c>
       <c r="I11">
-        <v>-0.1593039854082965</v>
+        <v>-0.1593039854082958</v>
       </c>
       <c r="J11">
-        <v>0.5908509217775023</v>
+        <v>0.590850921777502</v>
       </c>
       <c r="K11">
-        <v>0.07588459174227812</v>
+        <v>0.07588459174227886</v>
       </c>
       <c r="L11">
-        <v>-0.0133116706208527</v>
+        <v>-0.01331167062085281</v>
       </c>
       <c r="M11">
-        <v>8.881784197001252e-16</v>
+        <v>1.942890293094024e-16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1007,34 +1007,34 @@
         <v>5.627235375</v>
       </c>
       <c r="D12">
-        <v>-5.254589416258896</v>
+        <v>-5.254589416258897</v>
       </c>
       <c r="E12">
         <v>-2.453985962177522</v>
       </c>
       <c r="F12">
-        <v>0.1501286175816821</v>
+        <v>0.1501286175816831</v>
       </c>
       <c r="G12">
-        <v>0.6361022736876145</v>
+        <v>0.636102273687607</v>
       </c>
       <c r="H12">
-        <v>1.733154719201832</v>
+        <v>1.733154719201834</v>
       </c>
       <c r="I12">
-        <v>0.1388185239756071</v>
+        <v>0.1388185239756077</v>
       </c>
       <c r="J12">
-        <v>0.7241376662185633</v>
+        <v>0.7241376662185635</v>
       </c>
       <c r="K12">
-        <v>-0.5446467500941017</v>
+        <v>-0.5446467500941008</v>
       </c>
       <c r="L12">
-        <v>-0.08958657735239564</v>
+        <v>-0.0895865773523955</v>
       </c>
       <c r="M12">
-        <v>-4.440892098500626e-16</v>
+        <v>-6.696032617270475e-16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1048,34 +1048,34 @@
         <v>5.628967005</v>
       </c>
       <c r="D13">
-        <v>-3.380907594746849</v>
+        <v>-3.38090759474685</v>
       </c>
       <c r="E13">
-        <v>-1.088536442118124</v>
+        <v>-1.088536442118123</v>
       </c>
       <c r="F13">
-        <v>-0.7645350226137395</v>
+        <v>-0.7645350226137385</v>
       </c>
       <c r="G13">
-        <v>0.5665078116423434</v>
+        <v>0.5665078116423375</v>
       </c>
       <c r="H13">
-        <v>1.581207018475596</v>
+        <v>1.581207018475599</v>
       </c>
       <c r="I13">
-        <v>0.5683851576621057</v>
+        <v>0.5683851576621072</v>
       </c>
       <c r="J13">
-        <v>1.646197813074591</v>
+        <v>1.64619781307459</v>
       </c>
       <c r="K13">
-        <v>-0.3437083584529898</v>
+        <v>-0.3437083584529884</v>
       </c>
       <c r="L13">
-        <v>0.2924944961213821</v>
+        <v>0.2924944961213824</v>
       </c>
       <c r="M13">
-        <v>-8.049116928532385e-16</v>
+        <v>7.606762442158299e-16</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1089,34 +1089,34 @@
         <v>5.629910337</v>
       </c>
       <c r="D14">
-        <v>1.849098387315612</v>
+        <v>1.84909838731561</v>
       </c>
       <c r="E14">
         <v>-8.196241161468084</v>
       </c>
       <c r="F14">
-        <v>1.738299995562739</v>
+        <v>1.738299995562743</v>
       </c>
       <c r="G14">
-        <v>-0.5635227816348057</v>
+        <v>-0.5635227816348082</v>
       </c>
       <c r="H14">
-        <v>0.4679294435771286</v>
+        <v>0.4679294435771251</v>
       </c>
       <c r="I14">
-        <v>1.311761424799676</v>
+        <v>1.311761424799673</v>
       </c>
       <c r="J14">
-        <v>0.1973397971656044</v>
+        <v>0.1973397971656043</v>
       </c>
       <c r="K14">
-        <v>-0.1557454589508172</v>
+        <v>-0.1557454589508176</v>
       </c>
       <c r="L14">
-        <v>0.1141035576584944</v>
+        <v>0.1141035576584952</v>
       </c>
       <c r="M14">
-        <v>-6.661338147750939e-16</v>
+        <v>-2.886579864025407e-15</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1136,28 +1136,28 @@
         <v>-1.649722446768662</v>
       </c>
       <c r="F15">
-        <v>0.438221565342961</v>
+        <v>0.4382215653429613</v>
       </c>
       <c r="G15">
-        <v>0.1967414987974885</v>
+        <v>0.1967414987974879</v>
       </c>
       <c r="H15">
-        <v>-0.06817525231769693</v>
+        <v>-0.06817525231769658</v>
       </c>
       <c r="I15">
-        <v>0.2340224954135431</v>
+        <v>0.2340224954135425</v>
       </c>
       <c r="J15">
-        <v>0.1163433957952779</v>
+        <v>0.1163433957952781</v>
       </c>
       <c r="K15">
-        <v>-0.098005115572152</v>
+        <v>-0.09800511557215197</v>
       </c>
       <c r="L15">
-        <v>-0.02066721082069904</v>
+        <v>-0.02066721082069889</v>
       </c>
       <c r="M15">
-        <v>2.220446049250313e-16</v>
+        <v>-1.942890293094024e-16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1171,34 +1171,34 @@
         <v>5.627147537</v>
       </c>
       <c r="D16">
-        <v>-4.715591338864066</v>
+        <v>-4.715591338864065</v>
       </c>
       <c r="E16">
-        <v>-2.156472503200975</v>
+        <v>-2.156472503200974</v>
       </c>
       <c r="F16">
-        <v>0.0002714749833997271</v>
+        <v>0.0002714749834005389</v>
       </c>
       <c r="G16">
-        <v>0.3339955164686332</v>
+        <v>0.3339955164686333</v>
       </c>
       <c r="H16">
-        <v>-0.2276860592602456</v>
+        <v>-0.2276860592602448</v>
       </c>
       <c r="I16">
-        <v>0.2590984722487326</v>
+        <v>0.2590984722487319</v>
       </c>
       <c r="J16">
-        <v>0.002851806805955627</v>
+        <v>0.002851806805955911</v>
       </c>
       <c r="K16">
-        <v>-0.2532215785815505</v>
+        <v>-0.2532215785815506</v>
       </c>
       <c r="L16">
-        <v>0.04069591071031211</v>
+        <v>0.04069591071031176</v>
       </c>
       <c r="M16">
-        <v>2.220446049250313e-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1218,28 +1218,28 @@
         <v>-1.818400986142533</v>
       </c>
       <c r="F17">
-        <v>0.2726853304954883</v>
+        <v>0.2726853304954889</v>
       </c>
       <c r="G17">
-        <v>0.6343410972955095</v>
+        <v>0.6343410972955092</v>
       </c>
       <c r="H17">
-        <v>-0.2035936367017099</v>
+        <v>-0.2035936367017079</v>
       </c>
       <c r="I17">
-        <v>0.1345804056236586</v>
+        <v>0.1345804056236577</v>
       </c>
       <c r="J17">
-        <v>-0.09440022360126424</v>
+        <v>-0.0944002236012636</v>
       </c>
       <c r="K17">
-        <v>-0.4773548499057037</v>
+        <v>-0.477354849905704</v>
       </c>
       <c r="L17">
-        <v>-0.1347242461081069</v>
+        <v>-0.1347242461081067</v>
       </c>
       <c r="M17">
-        <v>-4.440892098500626e-16</v>
+        <v>-8.326672684688674e-17</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1253,34 +1253,34 @@
         <v>5.626879797</v>
       </c>
       <c r="D18">
-        <v>-2.932807332474977</v>
+        <v>-2.932807332474976</v>
       </c>
       <c r="E18">
-        <v>-0.533653380825008</v>
+        <v>-0.5336533808250068</v>
       </c>
       <c r="F18">
-        <v>0.5928707889682114</v>
+        <v>0.5928707889682105</v>
       </c>
       <c r="G18">
-        <v>-0.2924770122008041</v>
+        <v>-0.292477012200798</v>
       </c>
       <c r="H18">
-        <v>-1.82917773550045</v>
+        <v>-1.829177735500452</v>
       </c>
       <c r="I18">
-        <v>0.3033309324323923</v>
+        <v>0.3033309324323912</v>
       </c>
       <c r="J18">
         <v>-1.36000568670472</v>
       </c>
       <c r="K18">
-        <v>-0.5285468709987389</v>
+        <v>-0.5285468709987406</v>
       </c>
       <c r="L18">
-        <v>-0.0259946687813303</v>
+        <v>-0.02599466878133017</v>
       </c>
       <c r="M18">
-        <v>4.440892098500626e-16</v>
+        <v>4.024558464266192e-16</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1294,34 +1294,34 @@
         <v>5.629521358</v>
       </c>
       <c r="D19">
-        <v>1.179039817173304</v>
+        <v>1.179039817173302</v>
       </c>
       <c r="E19">
-        <v>-8.7539114657023</v>
+        <v>-8.753911465702302</v>
       </c>
       <c r="F19">
-        <v>1.811362648877991</v>
+        <v>1.811362648877995</v>
       </c>
       <c r="G19">
-        <v>-0.5890719003740834</v>
+        <v>-0.5890719003740874</v>
       </c>
       <c r="H19">
-        <v>0.7907155592499725</v>
+        <v>0.7907155592499696</v>
       </c>
       <c r="I19">
-        <v>0.8669016222533423</v>
+        <v>0.8669016222533398</v>
       </c>
       <c r="J19">
-        <v>-0.08689411306976516</v>
+        <v>-0.08689411306976527</v>
       </c>
       <c r="K19">
-        <v>0.1492067708168997</v>
+        <v>0.1492067708169</v>
       </c>
       <c r="L19">
-        <v>0.009031990546908869</v>
+        <v>0.009031990546908841</v>
       </c>
       <c r="M19">
-        <v>4.440892098500626e-16</v>
+        <v>-3.33066907387547e-15</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1338,31 +1338,31 @@
         <v>-3.828935305373677</v>
       </c>
       <c r="E20">
-        <v>-0.3713016443585039</v>
+        <v>-0.3713016443585027</v>
       </c>
       <c r="F20">
-        <v>0.787196904956575</v>
+        <v>0.7871969049565744</v>
       </c>
       <c r="G20">
-        <v>0.5742674557087178</v>
+        <v>0.574267455708716</v>
       </c>
       <c r="H20">
-        <v>0.229654805055393</v>
+        <v>0.2296548050553944</v>
       </c>
       <c r="I20">
-        <v>0.2617228519903152</v>
+        <v>0.2617228519903151</v>
       </c>
       <c r="J20">
         <v>-0.2900723038678233</v>
       </c>
       <c r="K20">
-        <v>-0.3664401198118831</v>
+        <v>-0.3664401198118835</v>
       </c>
       <c r="L20">
-        <v>0.005563885708474093</v>
+        <v>0.005563885708473992</v>
       </c>
       <c r="M20">
-        <v>-2.220446049250313e-16</v>
+        <v>-6.245004513516506e-17</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1376,34 +1376,34 @@
         <v>5.625229107</v>
       </c>
       <c r="D21">
-        <v>-2.378808691567253</v>
+        <v>-2.378808691567256</v>
       </c>
       <c r="E21">
         <v>-10.47969878777701</v>
       </c>
       <c r="F21">
-        <v>3.427180637941551</v>
+        <v>3.427180637941556</v>
       </c>
       <c r="G21">
-        <v>-0.705272883759807</v>
+        <v>-0.7052728837598101</v>
       </c>
       <c r="H21">
-        <v>0.1065955732556026</v>
+        <v>0.1065955732555988</v>
       </c>
       <c r="I21">
-        <v>1.163783135223739</v>
+        <v>1.163783135223735</v>
       </c>
       <c r="J21">
-        <v>0.2950978916766803</v>
+        <v>0.2950978916766806</v>
       </c>
       <c r="K21">
-        <v>0.7703467091352376</v>
+        <v>0.770346709135237</v>
       </c>
       <c r="L21">
-        <v>-0.1518885280720296</v>
+        <v>-0.1518885280720297</v>
       </c>
       <c r="M21">
-        <v>5.551115123125783e-16</v>
+        <v>-3.774758283725532e-15</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1417,34 +1417,34 @@
         <v>5.629099108</v>
       </c>
       <c r="D22">
-        <v>-3.902656995909178</v>
+        <v>-3.902656995909177</v>
       </c>
       <c r="E22">
-        <v>-0.705746651137203</v>
+        <v>-0.7057466511372025</v>
       </c>
       <c r="F22">
-        <v>-0.1476769154066618</v>
+        <v>-0.1476769154066616</v>
       </c>
       <c r="G22">
-        <v>0.8999558520709954</v>
+        <v>0.8999558520709886</v>
       </c>
       <c r="H22">
-        <v>1.585569927908915</v>
+        <v>1.585569927908919</v>
       </c>
       <c r="I22">
-        <v>-0.2911242034370682</v>
+        <v>-0.2911242034370679</v>
       </c>
       <c r="J22">
-        <v>0.08271071133503409</v>
+        <v>0.0827107113350343</v>
       </c>
       <c r="K22">
-        <v>-0.148216957345245</v>
+        <v>-0.1482169573452447</v>
       </c>
       <c r="L22">
-        <v>0.0434279630896157</v>
+        <v>0.04342796308961472</v>
       </c>
       <c r="M22">
-        <v>3.33066907387547e-16</v>
+        <v>1.665334536937735e-16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1458,34 +1458,34 @@
         <v>5.627469814</v>
       </c>
       <c r="D23">
-        <v>-3.237299375189029</v>
+        <v>-3.237299375189028</v>
       </c>
       <c r="E23">
-        <v>0.4292377442915851</v>
+        <v>0.4292377442915858</v>
       </c>
       <c r="F23">
-        <v>0.02325984735814117</v>
+        <v>0.02325984735814004</v>
       </c>
       <c r="G23">
-        <v>-0.3056338048838128</v>
+        <v>-0.3056338048838075</v>
       </c>
       <c r="H23">
-        <v>-1.637118735602803</v>
+        <v>-1.637118735602805</v>
       </c>
       <c r="I23">
-        <v>0.3610454584225469</v>
+        <v>0.3610454584225465</v>
       </c>
       <c r="J23">
         <v>-1.216809098595516</v>
       </c>
       <c r="K23">
-        <v>-0.6127246743989714</v>
+        <v>-0.6127246743989729</v>
       </c>
       <c r="L23">
-        <v>0.08929320243588149</v>
+        <v>0.08929320243588168</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-8.604228440844963e-16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1499,34 +1499,34 @@
         <v>5.634240271</v>
       </c>
       <c r="D24">
-        <v>9.021092289284724</v>
+        <v>9.021092289284725</v>
       </c>
       <c r="E24">
-        <v>5.189884784182722</v>
+        <v>5.189884784182719</v>
       </c>
       <c r="F24">
-        <v>12.87560231613283</v>
+        <v>12.87560231613282</v>
       </c>
       <c r="G24">
-        <v>-4.438845608471754</v>
+        <v>-4.438845608471762</v>
       </c>
       <c r="H24">
-        <v>1.025726128566714</v>
+        <v>1.025726128566698</v>
       </c>
       <c r="I24">
-        <v>-3.150525716921764</v>
+        <v>-3.150525716921768</v>
       </c>
       <c r="J24">
-        <v>0.08261617802306169</v>
+        <v>0.08261617802306134</v>
       </c>
       <c r="K24">
-        <v>-0.0719692673191268</v>
+        <v>-0.07196926731912542</v>
       </c>
       <c r="L24">
-        <v>0.09068802333917764</v>
+        <v>0.09068802333917869</v>
       </c>
       <c r="M24">
-        <v>-1.582067810090848e-15</v>
+        <v>-1.110223024625157e-15</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1540,34 +1540,34 @@
         <v>5.631863177</v>
       </c>
       <c r="D25">
-        <v>2.00763896680103</v>
+        <v>2.007638966801032</v>
       </c>
       <c r="E25">
-        <v>4.301532676721601</v>
+        <v>4.3015326767216</v>
       </c>
       <c r="F25">
         <v>1.300871296085234</v>
       </c>
       <c r="G25">
-        <v>8.07830417071159</v>
+        <v>8.078304170711592</v>
       </c>
       <c r="H25">
-        <v>-1.749105636116554</v>
+        <v>-1.749105636116525</v>
       </c>
       <c r="I25">
-        <v>-0.550134090011168</v>
+        <v>-0.5501340900111734</v>
       </c>
       <c r="J25">
-        <v>0.2991493609195155</v>
+        <v>0.2991493609195164</v>
       </c>
       <c r="K25">
-        <v>0.133552353688694</v>
+        <v>0.1335523536886933</v>
       </c>
       <c r="L25">
-        <v>0.1681965827220095</v>
+        <v>0.1681965827220081</v>
       </c>
       <c r="M25">
-        <v>-2.220446049250313e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1584,31 +1584,31 @@
         <v>-6.85122928513151</v>
       </c>
       <c r="E26">
-        <v>-0.1020327319311306</v>
+        <v>-0.1020327319311287</v>
       </c>
       <c r="F26">
         <v>-2.194725692369786</v>
       </c>
       <c r="G26">
-        <v>-0.08046270474235877</v>
+        <v>-0.08046270474235449</v>
       </c>
       <c r="H26">
-        <v>-1.190616307747739</v>
+        <v>-1.190616307747738</v>
       </c>
       <c r="I26">
-        <v>-0.2018186400115003</v>
+        <v>-0.2018186400114999</v>
       </c>
       <c r="J26">
-        <v>-0.1489553071909707</v>
+        <v>-0.1489553071909702</v>
       </c>
       <c r="K26">
-        <v>0.1445606221372598</v>
+        <v>0.1445606221372596</v>
       </c>
       <c r="L26">
-        <v>0.1910254357266263</v>
+        <v>0.1910254357266257</v>
       </c>
       <c r="M26">
-        <v>8.881784197001252e-16</v>
+        <v>9.992007221626409e-16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1622,34 +1622,34 @@
         <v>5.622025945</v>
       </c>
       <c r="D27">
-        <v>-7.072301760276463</v>
+        <v>-7.07230176027646</v>
       </c>
       <c r="E27">
-        <v>-0.07179833715904423</v>
+        <v>-0.07179833715904248</v>
       </c>
       <c r="F27">
-        <v>-0.8444108433905124</v>
+        <v>-0.8444108433905135</v>
       </c>
       <c r="G27">
-        <v>-0.1560259470063473</v>
+        <v>-0.1560259470063446</v>
       </c>
       <c r="H27">
-        <v>-0.9091203867376657</v>
+        <v>-0.909120386737666</v>
       </c>
       <c r="I27">
-        <v>-0.385878379680735</v>
+        <v>-0.3858783796807348</v>
       </c>
       <c r="J27">
-        <v>-0.2469390241045968</v>
+        <v>-0.246939024104596</v>
       </c>
       <c r="K27">
-        <v>0.2089954571268901</v>
+        <v>0.20899545712689</v>
       </c>
       <c r="L27">
-        <v>0.05807884453795063</v>
+        <v>0.05807884453795031</v>
       </c>
       <c r="M27">
-        <v>1.332267629550188e-15</v>
+        <v>7.216449660063518e-16</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1663,34 +1663,34 @@
         <v>5.622090735</v>
       </c>
       <c r="D28">
-        <v>-6.715202161525858</v>
+        <v>-6.715202161525857</v>
       </c>
       <c r="E28">
-        <v>1.435122222207287</v>
+        <v>1.435122222207289</v>
       </c>
       <c r="F28">
-        <v>0.4302817663802546</v>
+        <v>0.4302817663802523</v>
       </c>
       <c r="G28">
-        <v>0.1903140505335918</v>
+        <v>0.190314050533594</v>
       </c>
       <c r="H28">
-        <v>-0.9895575377101737</v>
+        <v>-0.989557537710173</v>
       </c>
       <c r="I28">
-        <v>-0.47280460511248</v>
+        <v>-0.4728046051124802</v>
       </c>
       <c r="J28">
-        <v>-0.3738551648787826</v>
+        <v>-0.3738551648787821</v>
       </c>
       <c r="K28">
-        <v>0.3324378828126308</v>
+        <v>0.3324378828126306</v>
       </c>
       <c r="L28">
-        <v>-0.1351868282589472</v>
+        <v>-0.135186828258947</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1.693090112553364e-15</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1704,34 +1704,34 @@
         <v>5.624090002</v>
       </c>
       <c r="D29">
-        <v>-5.863017909495983</v>
+        <v>-5.863017909495982</v>
       </c>
       <c r="E29">
-        <v>1.388155430719516</v>
+        <v>1.388155430719518</v>
       </c>
       <c r="F29">
-        <v>-0.1814247150927588</v>
+        <v>-0.1814247150927607</v>
       </c>
       <c r="G29">
-        <v>-0.622305014518002</v>
+        <v>-0.622305014517999</v>
       </c>
       <c r="H29">
-        <v>-1.074802820289799</v>
+        <v>-1.074802820289801</v>
       </c>
       <c r="I29">
-        <v>-0.176524682869289</v>
+        <v>-0.1765246828692882</v>
       </c>
       <c r="J29">
-        <v>-0.5362983565711599</v>
+        <v>-0.5362983565711598</v>
       </c>
       <c r="K29">
-        <v>0.2108596881810119</v>
+        <v>0.2108596881810118</v>
       </c>
       <c r="L29">
-        <v>0.01578537807464594</v>
+        <v>0.01578537807464575</v>
       </c>
       <c r="M29">
-        <v>1.332267629550188e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1745,34 +1745,34 @@
         <v>5.624522907</v>
       </c>
       <c r="D30">
-        <v>-6.440102061450036</v>
+        <v>-6.440102061450035</v>
       </c>
       <c r="E30">
-        <v>0.9305099722687471</v>
+        <v>0.9305099722687489</v>
       </c>
       <c r="F30">
-        <v>-0.07552260210820251</v>
+        <v>-0.07552260210820477</v>
       </c>
       <c r="G30">
-        <v>-0.2131151862675287</v>
+        <v>-0.2131151862675268</v>
       </c>
       <c r="H30">
-        <v>-0.7620611094348008</v>
+        <v>-0.7620611094348011</v>
       </c>
       <c r="I30">
-        <v>-0.4253424871892931</v>
+        <v>-0.4253424871892929</v>
       </c>
       <c r="J30">
-        <v>-0.3951761879789205</v>
+        <v>-0.3951761879789201</v>
       </c>
       <c r="K30">
         <v>0.2469215886286585</v>
       </c>
       <c r="L30">
-        <v>0.05377622433321724</v>
+        <v>0.05377622433321672</v>
       </c>
       <c r="M30">
-        <v>1.77635683940025e-15</v>
+        <v>9.159339953157541e-16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1786,34 +1786,34 @@
         <v>5.622928924</v>
       </c>
       <c r="D31">
-        <v>-3.786751497866401</v>
+        <v>-3.7867514978664</v>
       </c>
       <c r="E31">
-        <v>2.194066053985143</v>
+        <v>2.194066053985144</v>
       </c>
       <c r="F31">
-        <v>-0.3302698643656423</v>
+        <v>-0.3302698643656442</v>
       </c>
       <c r="G31">
-        <v>0.1165522726347676</v>
+        <v>0.1165522726347686</v>
       </c>
       <c r="H31">
-        <v>-0.4317507761603411</v>
+        <v>-0.4317507761603404</v>
       </c>
       <c r="I31">
-        <v>-0.2654233246452938</v>
+        <v>-0.2654233246452928</v>
       </c>
       <c r="J31">
-        <v>-0.2424017821577593</v>
+        <v>-0.2424017821577592</v>
       </c>
       <c r="K31">
-        <v>0.3321451470968901</v>
+        <v>0.3321451470968899</v>
       </c>
       <c r="L31">
-        <v>0.006222595810315271</v>
+        <v>0.006222595810315479</v>
       </c>
       <c r="M31">
-        <v>4.440892098500626e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1830,31 +1830,31 @@
         <v>-3.698231057095009</v>
       </c>
       <c r="E32">
-        <v>0.6474824295666803</v>
+        <v>0.6474824295666812</v>
       </c>
       <c r="F32">
-        <v>-0.3593533883624814</v>
+        <v>-0.3593533883624819</v>
       </c>
       <c r="G32">
-        <v>0.5878471950051457</v>
+        <v>0.5878471950051432</v>
       </c>
       <c r="H32">
-        <v>0.6857851594952981</v>
+        <v>0.6857851594953002</v>
       </c>
       <c r="I32">
-        <v>0.01451511184670465</v>
+        <v>0.01451511184670579</v>
       </c>
       <c r="J32">
-        <v>0.2564672426344</v>
+        <v>0.2564672426343999</v>
       </c>
       <c r="K32">
-        <v>0.4021327943631468</v>
+        <v>0.4021327943631475</v>
       </c>
       <c r="L32">
         <v>0.1040360678030955</v>
       </c>
       <c r="M32">
-        <v>1.110223024625157e-15</v>
+        <v>5.273559366969494e-16</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1871,31 +1871,31 @@
         <v>-2.448745207268971</v>
       </c>
       <c r="E33">
-        <v>1.544799437959608</v>
+        <v>1.544799437959609</v>
       </c>
       <c r="F33">
-        <v>-0.6844420715453226</v>
+        <v>-0.6844420715453234</v>
       </c>
       <c r="G33">
-        <v>0.4957676479563718</v>
+        <v>0.4957676479563706</v>
       </c>
       <c r="H33">
-        <v>0.3070480215312561</v>
+        <v>0.3070480215312584</v>
       </c>
       <c r="I33">
-        <v>-0.2475095831408437</v>
+        <v>-0.2475095831408428</v>
       </c>
       <c r="J33">
-        <v>0.06381051245743274</v>
+        <v>0.06381051245743284</v>
       </c>
       <c r="K33">
-        <v>0.3771810788639433</v>
+        <v>0.3771810788639436</v>
       </c>
       <c r="L33">
-        <v>0.04863480141498428</v>
+        <v>0.04863480141498411</v>
       </c>
       <c r="M33">
-        <v>9.992007221626409e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1909,34 +1909,34 @@
         <v>5.626640459</v>
       </c>
       <c r="D34">
-        <v>4.011871688456666</v>
+        <v>4.011871688456663</v>
       </c>
       <c r="E34">
         <v>4.029462737263136</v>
       </c>
       <c r="F34">
-        <v>-5.473246136643522</v>
+        <v>-5.473246136643524</v>
       </c>
       <c r="G34">
-        <v>-6.401540811099477</v>
+        <v>-6.401540811099475</v>
       </c>
       <c r="H34">
-        <v>1.027847894760355</v>
+        <v>1.027847894760335</v>
       </c>
       <c r="I34">
-        <v>-0.9770726080022217</v>
+        <v>-0.9770726080022146</v>
       </c>
       <c r="J34">
         <v>0.4687982795367732</v>
       </c>
       <c r="K34">
-        <v>0.3685015013399325</v>
+        <v>0.368501501339933</v>
       </c>
       <c r="L34">
-        <v>0.01929874040407622</v>
+        <v>0.01929874040407609</v>
       </c>
       <c r="M34">
-        <v>-1.110223024625157e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1950,34 +1950,34 @@
         <v>5.626249614</v>
       </c>
       <c r="D35">
-        <v>-4.439557294464675</v>
+        <v>-4.439557294464673</v>
       </c>
       <c r="E35">
-        <v>1.394970820046527</v>
+        <v>1.394970820046528</v>
       </c>
       <c r="F35">
-        <v>0.04938039965921798</v>
+        <v>0.04938039965921625</v>
       </c>
       <c r="G35">
-        <v>-0.02463656202423195</v>
+        <v>-0.02463656202423256</v>
       </c>
       <c r="H35">
-        <v>0.05150233098470971</v>
+        <v>0.05150233098470956</v>
       </c>
       <c r="I35">
-        <v>-0.2380035233521703</v>
+        <v>-0.2380035233521693</v>
       </c>
       <c r="J35">
-        <v>-0.4218878824196179</v>
+        <v>-0.4218878824196178</v>
       </c>
       <c r="K35">
-        <v>0.3822400484112554</v>
+        <v>0.3822400484112557</v>
       </c>
       <c r="L35">
-        <v>-0.03808722177460445</v>
+        <v>-0.03808722177460466</v>
       </c>
       <c r="M35">
-        <v>1.332267629550188e-15</v>
+        <v>6.106226635438361e-16</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1991,34 +1991,34 @@
         <v>5.624494188</v>
       </c>
       <c r="D36">
-        <v>-4.411523907783116</v>
+        <v>-4.411523907783114</v>
       </c>
       <c r="E36">
-        <v>2.257185088684575</v>
+        <v>2.257185088684576</v>
       </c>
       <c r="F36">
-        <v>0.7445550204433038</v>
+        <v>0.7445550204433017</v>
       </c>
       <c r="G36">
-        <v>0.2035985715166491</v>
+        <v>0.2035985715166484</v>
       </c>
       <c r="H36">
-        <v>-0.1025164485661853</v>
+        <v>-0.1025164485661842</v>
       </c>
       <c r="I36">
-        <v>-0.2010127965613113</v>
+        <v>-0.2010127965613108</v>
       </c>
       <c r="J36">
-        <v>-0.4997965909585534</v>
+        <v>-0.4997965909585531</v>
       </c>
       <c r="K36">
-        <v>0.09016058709947419</v>
+        <v>0.0901605870994738</v>
       </c>
       <c r="L36">
-        <v>-0.01553722232840186</v>
+        <v>-0.01553722232840227</v>
       </c>
       <c r="M36">
-        <v>8.881784197001252e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2032,34 +2032,34 @@
         <v>5.622374787</v>
       </c>
       <c r="D37">
-        <v>-5.793757023029564</v>
+        <v>-5.793757023029563</v>
       </c>
       <c r="E37">
-        <v>1.425586541466878</v>
+        <v>1.42558654146688</v>
       </c>
       <c r="F37">
-        <v>0.3753061954074794</v>
+        <v>0.3753061954074771</v>
       </c>
       <c r="G37">
-        <v>-0.4930955699003409</v>
+        <v>-0.4930955699003433</v>
       </c>
       <c r="H37">
-        <v>0.3503801948131104</v>
+        <v>0.3503801948131088</v>
       </c>
       <c r="I37">
-        <v>-0.542518882511189</v>
+        <v>-0.5425188825111877</v>
       </c>
       <c r="J37">
-        <v>0.4710808688362138</v>
+        <v>0.4710808688362139</v>
       </c>
       <c r="K37">
-        <v>-0.3200115563304012</v>
+        <v>-0.3200115563304006</v>
       </c>
       <c r="L37">
-        <v>-0.2908462531440357</v>
+        <v>-0.2908462531440347</v>
       </c>
       <c r="M37">
-        <v>4.440892098500626e-16</v>
+        <v>7.216449660063518e-16</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2076,31 +2076,31 @@
         <v>-6.823732372557705</v>
       </c>
       <c r="E38">
-        <v>1.059568351638539</v>
+        <v>1.059568351638541</v>
       </c>
       <c r="F38">
-        <v>-1.68526543495617</v>
+        <v>-1.685265434956172</v>
       </c>
       <c r="G38">
-        <v>-0.1334310748496873</v>
+        <v>-0.1334310748496836</v>
       </c>
       <c r="H38">
         <v>-1.038502482437396</v>
       </c>
       <c r="I38">
-        <v>-0.5200941563170931</v>
+        <v>-0.5200941563170928</v>
       </c>
       <c r="J38">
-        <v>0.2915952786689653</v>
+        <v>0.291595278668966</v>
       </c>
       <c r="K38">
-        <v>0.09538433243439975</v>
+        <v>0.0953843324343997</v>
       </c>
       <c r="L38">
-        <v>0.002318405833149295</v>
+        <v>0.002318405833149129</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1.27675647831893e-15</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2114,34 +2114,34 @@
         <v>5.626901664</v>
       </c>
       <c r="D39">
-        <v>-2.87460467485695</v>
+        <v>-2.874604674856949</v>
       </c>
       <c r="E39">
-        <v>3.456122399590687</v>
+        <v>3.456122399590689</v>
       </c>
       <c r="F39">
-        <v>0.6497252220050453</v>
+        <v>0.6497252220050427</v>
       </c>
       <c r="G39">
-        <v>0.4553835590196568</v>
+        <v>0.4553835590196537</v>
       </c>
       <c r="H39">
-        <v>0.6599291014742352</v>
+        <v>0.6599291014742366</v>
       </c>
       <c r="I39">
-        <v>0.09203399925973388</v>
+        <v>0.09203399925973588</v>
       </c>
       <c r="J39">
-        <v>-0.2831789442427634</v>
+        <v>-0.2831789442427637</v>
       </c>
       <c r="K39">
-        <v>-0.02834954950379569</v>
+        <v>-0.02834954950379542</v>
       </c>
       <c r="L39">
-        <v>-0.0713154513750861</v>
+        <v>-0.07131545137508633</v>
       </c>
       <c r="M39">
-        <v>4.440892098500626e-16</v>
+        <v>9.992007221626409e-16</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2155,34 +2155,34 @@
         <v>5.622880567</v>
       </c>
       <c r="D40">
-        <v>-3.220073497396141</v>
+        <v>-3.22007349739614</v>
       </c>
       <c r="E40">
-        <v>3.12349435485222</v>
+        <v>3.123494354852222</v>
       </c>
       <c r="F40">
-        <v>-0.2316600816647429</v>
+        <v>-0.2316600816647455</v>
       </c>
       <c r="G40">
-        <v>-0.3064858046176996</v>
+        <v>-0.3064858046177035</v>
       </c>
       <c r="H40">
-        <v>1.012886954167073</v>
+        <v>1.012886954167072</v>
       </c>
       <c r="I40">
-        <v>0.1400966882854933</v>
+        <v>0.1400966882854957</v>
       </c>
       <c r="J40">
-        <v>1.355888797401783</v>
+        <v>1.355888797401782</v>
       </c>
       <c r="K40">
-        <v>-0.2118256363071572</v>
+        <v>-0.2118256363071558</v>
       </c>
       <c r="L40">
-        <v>-0.1932149075150797</v>
+        <v>-0.1932149075150804</v>
       </c>
       <c r="M40">
-        <v>-6.661338147750939e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
     </row>
   </sheetData>
@@ -2253,31 +2253,31 @@
         <v>11.62277592793797</v>
       </c>
       <c r="E2">
-        <v>3.10744952795023</v>
+        <v>3.107449527950225</v>
       </c>
       <c r="F2">
-        <v>-4.290350900961278</v>
+        <v>-4.290350900961241</v>
       </c>
       <c r="G2">
-        <v>-0.9594709724933354</v>
+        <v>-0.9594709724934635</v>
       </c>
       <c r="H2">
-        <v>2.378236004587636</v>
+        <v>2.378236004587641</v>
       </c>
       <c r="I2">
-        <v>1.153172687678577</v>
+        <v>1.153172687678579</v>
       </c>
       <c r="J2">
-        <v>0.2352454141232825</v>
+        <v>0.2352454141232858</v>
       </c>
       <c r="K2">
-        <v>0.06546798559298868</v>
+        <v>0.06546798559299097</v>
       </c>
       <c r="L2">
-        <v>0.0313267697122715</v>
+        <v>0.03132676971226944</v>
       </c>
       <c r="M2">
-        <v>-1.77635683940025e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2294,31 +2294,31 @@
         <v>11.13290791521486</v>
       </c>
       <c r="E3">
-        <v>-3.205427847686416</v>
+        <v>-3.205427847686417</v>
       </c>
       <c r="F3">
-        <v>-0.247428160114312</v>
+        <v>-0.2474281601142967</v>
       </c>
       <c r="G3">
-        <v>-0.5835223279308697</v>
+        <v>-0.5835223279308825</v>
       </c>
       <c r="H3">
-        <v>-2.148046074758571</v>
+        <v>-2.14804607475857</v>
       </c>
       <c r="I3">
-        <v>0.3291241288846056</v>
+        <v>0.3291241288846042</v>
       </c>
       <c r="J3">
-        <v>-0.08889277311663643</v>
+        <v>-0.08889277311663614</v>
       </c>
       <c r="K3">
-        <v>0.03242434208986184</v>
+        <v>0.03242434208986302</v>
       </c>
       <c r="L3">
-        <v>0.04136198742090602</v>
+        <v>0.04136198742090658</v>
       </c>
       <c r="M3">
-        <v>8.881784197001252e-16</v>
+        <v>2.886579864025407e-15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2335,31 +2335,31 @@
         <v>11.75470190538947</v>
       </c>
       <c r="E4">
-        <v>2.97167215235977</v>
+        <v>2.971672152359766</v>
       </c>
       <c r="F4">
-        <v>-5.394526510240822</v>
+        <v>-5.39452651024077</v>
       </c>
       <c r="G4">
-        <v>-1.381034748634611</v>
+        <v>-1.381034748634775</v>
       </c>
       <c r="H4">
-        <v>1.732585010515323</v>
+        <v>1.73258501051533</v>
       </c>
       <c r="I4">
-        <v>1.146764341312675</v>
+        <v>1.146764341312676</v>
       </c>
       <c r="J4">
-        <v>0.1018632510161529</v>
+        <v>0.101863251016156</v>
       </c>
       <c r="K4">
-        <v>0.02499938928063176</v>
+        <v>0.02499938928063499</v>
       </c>
       <c r="L4">
         <v>-0.1388842269487705</v>
       </c>
       <c r="M4">
-        <v>2.664535259100376e-15</v>
+        <v>4.6074255521944e-15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2373,34 +2373,34 @@
         <v>5.628571907</v>
       </c>
       <c r="D5">
-        <v>6.092505624144144</v>
+        <v>6.092505624144139</v>
       </c>
       <c r="E5">
-        <v>0.249346924351158</v>
+        <v>0.2493469243511606</v>
       </c>
       <c r="F5">
-        <v>3.941869528652023</v>
+        <v>3.941869528652205</v>
       </c>
       <c r="G5">
-        <v>-5.819567562566574</v>
+        <v>-5.819567562566458</v>
       </c>
       <c r="H5">
-        <v>-3.670727050930203</v>
+        <v>-3.670727050930194</v>
       </c>
       <c r="I5">
-        <v>-0.4967999862783652</v>
+        <v>-0.4967999862783675</v>
       </c>
       <c r="J5">
-        <v>0.4443073209066674</v>
+        <v>0.4443073209066665</v>
       </c>
       <c r="K5">
-        <v>-0.1397314441137086</v>
+        <v>-0.1397314441137094</v>
       </c>
       <c r="L5">
-        <v>0.01935644382183511</v>
+        <v>0.01935644382183388</v>
       </c>
       <c r="M5">
-        <v>2.664535259100376e-15</v>
+        <v>3.996802888650564e-15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2414,34 +2414,34 @@
         <v>5.628221504</v>
       </c>
       <c r="D6">
-        <v>10.92603942493062</v>
+        <v>10.92603942493061</v>
       </c>
       <c r="E6">
-        <v>-3.177595810870811</v>
+        <v>-3.177595810870813</v>
       </c>
       <c r="F6">
-        <v>-0.5597230588858402</v>
+        <v>-0.559723058885821</v>
       </c>
       <c r="G6">
-        <v>-0.6973934918997723</v>
+        <v>-0.6973934918997949</v>
       </c>
       <c r="H6">
-        <v>-2.239081834366384</v>
+        <v>-2.239081834366381</v>
       </c>
       <c r="I6">
-        <v>-0.3996416970779858</v>
+        <v>-0.3996416970779871</v>
       </c>
       <c r="J6">
-        <v>-0.3847542687870167</v>
+        <v>-0.3847542687870171</v>
       </c>
       <c r="K6">
-        <v>0.09220237152337613</v>
+        <v>0.09220237152337749</v>
       </c>
       <c r="L6">
-        <v>-0.07334839663675438</v>
+        <v>-0.0733483966367543</v>
       </c>
       <c r="M6">
-        <v>-1.77635683940025e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2458,31 +2458,31 @@
         <v>10.78047448310323</v>
       </c>
       <c r="E7">
-        <v>-3.466481192852721</v>
+        <v>-3.466481192852722</v>
       </c>
       <c r="F7">
-        <v>0.6353494183157138</v>
+        <v>0.6353494183157213</v>
       </c>
       <c r="G7">
-        <v>-0.3101336366813404</v>
+        <v>-0.3101336366813257</v>
       </c>
       <c r="H7">
         <v>-1.990695268094991</v>
       </c>
       <c r="I7">
-        <v>-0.2619849154723454</v>
+        <v>-0.2619849154723461</v>
       </c>
       <c r="J7">
-        <v>-0.1950878221416215</v>
+        <v>-0.195087822141622</v>
       </c>
       <c r="K7">
-        <v>0.007615208998528463</v>
+        <v>0.007615208998529122</v>
       </c>
       <c r="L7">
-        <v>-0.04377352956976654</v>
+        <v>-0.04377352956976566</v>
       </c>
       <c r="M7">
-        <v>-8.881784197001252e-16</v>
+        <v>-2.220446049250313e-15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2496,34 +2496,34 @@
         <v>5.629185818</v>
       </c>
       <c r="D8">
-        <v>5.969722341768582</v>
+        <v>5.969722341768581</v>
       </c>
       <c r="E8">
         <v>-7.315715219976958</v>
       </c>
       <c r="F8">
-        <v>-2.017137814879684</v>
+        <v>-2.017137814879648</v>
       </c>
       <c r="G8">
-        <v>-0.7558892178458226</v>
+        <v>-0.7558892178458777</v>
       </c>
       <c r="H8">
-        <v>4.306857304531786</v>
+        <v>4.306857304531789</v>
       </c>
       <c r="I8">
-        <v>-0.5152205397812009</v>
+        <v>-0.5152205397811987</v>
       </c>
       <c r="J8">
-        <v>0.1453316909642976</v>
+        <v>0.1453316909643007</v>
       </c>
       <c r="K8">
-        <v>0.1250259566166828</v>
+        <v>0.1250259566166838</v>
       </c>
       <c r="L8">
-        <v>0.03790070284595921</v>
+        <v>0.03790070284595881</v>
       </c>
       <c r="M8">
-        <v>1.332267629550188e-15</v>
+        <v>1.720845688168993e-15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2543,28 +2543,28 @@
         <v>-2.153946105303353</v>
       </c>
       <c r="F9">
-        <v>7.411199842735822</v>
+        <v>7.411199842735748</v>
       </c>
       <c r="G9">
-        <v>2.38932193259821</v>
+        <v>2.389321932598451</v>
       </c>
       <c r="H9">
-        <v>2.370945318850117</v>
+        <v>2.370945318850103</v>
       </c>
       <c r="I9">
-        <v>0.6502086048131734</v>
+        <v>0.650208604813174</v>
       </c>
       <c r="J9">
-        <v>-0.7656911468171825</v>
+        <v>-0.7656911468171835</v>
       </c>
       <c r="K9">
-        <v>-0.1754061993839407</v>
+        <v>-0.1754061993839434</v>
       </c>
       <c r="L9">
-        <v>-0.02963478030772965</v>
+        <v>-0.02963478030773059</v>
       </c>
       <c r="M9">
-        <v>-1.77635683940025e-15</v>
+        <v>1.831867990631508e-15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2578,34 +2578,34 @@
         <v>5.630286583</v>
       </c>
       <c r="D10">
-        <v>2.142073339489479</v>
+        <v>2.142073339489475</v>
       </c>
       <c r="E10">
         <v>12.22391581000866</v>
       </c>
       <c r="F10">
-        <v>5.42612277903592</v>
+        <v>5.426122779035821</v>
       </c>
       <c r="G10">
-        <v>3.152923104943272</v>
+        <v>3.152923104943456</v>
       </c>
       <c r="H10">
-        <v>3.261672244128466</v>
+        <v>3.261672244128448</v>
       </c>
       <c r="I10">
-        <v>1.388068648634798</v>
+        <v>1.388068648634801</v>
       </c>
       <c r="J10">
-        <v>0.3857100225899879</v>
+        <v>0.3857100225899867</v>
       </c>
       <c r="K10">
-        <v>0.02048793965216767</v>
+        <v>0.02048793965216468</v>
       </c>
       <c r="L10">
-        <v>0.02159698957770545</v>
+        <v>0.02159698957770395</v>
       </c>
       <c r="M10">
-        <v>3.219646771412954e-15</v>
+        <v>-1.554312234475219e-15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2619,34 +2619,34 @@
         <v>5.626444266</v>
       </c>
       <c r="D11">
-        <v>-1.878109553890015</v>
+        <v>-1.878109553890013</v>
       </c>
       <c r="E11">
-        <v>-0.1808387945895153</v>
+        <v>-0.1808387945895152</v>
       </c>
       <c r="F11">
-        <v>0.3579988600697784</v>
+        <v>0.3579988600697339</v>
       </c>
       <c r="G11">
-        <v>1.361057459309014</v>
+        <v>1.361057459309026</v>
       </c>
       <c r="H11">
-        <v>0.2461198382700079</v>
+        <v>0.2461198382700059</v>
       </c>
       <c r="I11">
-        <v>-1.157847521981325</v>
+        <v>-1.157847521981324</v>
       </c>
       <c r="J11">
-        <v>-0.4446974579680796</v>
+        <v>-0.4446974579680806</v>
       </c>
       <c r="K11">
-        <v>-0.07304870269859395</v>
+        <v>-0.07304870269859401</v>
       </c>
       <c r="L11">
-        <v>-0.05543305900892051</v>
+        <v>-0.05543305900891998</v>
       </c>
       <c r="M11">
-        <v>2.220446049250313e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2660,34 +2660,34 @@
         <v>5.627235375</v>
       </c>
       <c r="D12">
-        <v>2.572263535584725</v>
+        <v>2.572263535584721</v>
       </c>
       <c r="E12">
-        <v>11.40759769724794</v>
+        <v>11.40759769724793</v>
       </c>
       <c r="F12">
-        <v>-1.874618050626717</v>
+        <v>-1.874618050626729</v>
       </c>
       <c r="G12">
-        <v>0.3254894474708118</v>
+        <v>0.3254894474707535</v>
       </c>
       <c r="H12">
-        <v>-0.9059515924120858</v>
+        <v>-0.9059515924120835</v>
       </c>
       <c r="I12">
-        <v>-0.8542469395374396</v>
+        <v>-0.8542469395374394</v>
       </c>
       <c r="J12">
-        <v>-0.5097813111098974</v>
+        <v>-0.5097813111098979</v>
       </c>
       <c r="K12">
-        <v>0.1024125483435759</v>
+        <v>0.1024125483435765</v>
       </c>
       <c r="L12">
-        <v>0.1300488828785454</v>
+        <v>0.130048882878546</v>
       </c>
       <c r="M12">
-        <v>3.552713678800501e-15</v>
+        <v>1.720845688168993e-15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2701,34 +2701,34 @@
         <v>5.628967005</v>
       </c>
       <c r="D13">
-        <v>1.3504931832485</v>
+        <v>1.350493183248499</v>
       </c>
       <c r="E13">
-        <v>-1.749509899577727</v>
+        <v>-1.749509899577724</v>
       </c>
       <c r="F13">
-        <v>1.654802952503696</v>
+        <v>1.654802952503918</v>
       </c>
       <c r="G13">
-        <v>-6.592853665943164</v>
+        <v>-6.592853665943103</v>
       </c>
       <c r="H13">
-        <v>3.824215398258553</v>
+        <v>3.824215398258565</v>
       </c>
       <c r="I13">
-        <v>-0.3248008776786782</v>
+        <v>-0.3248008776786761</v>
       </c>
       <c r="J13">
-        <v>-0.6466319290504412</v>
+        <v>-0.6466319290504398</v>
       </c>
       <c r="K13">
-        <v>0.09088383506989774</v>
+        <v>0.09088383506989665</v>
       </c>
       <c r="L13">
-        <v>0.05594664175096256</v>
+        <v>0.05594664175096087</v>
       </c>
       <c r="M13">
-        <v>2.997602166487923e-15</v>
+        <v>2.220446049250313e-15</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2742,34 +2742,34 @@
         <v>5.629910337</v>
       </c>
       <c r="D14">
-        <v>-2.857714155111003</v>
+        <v>-2.857714155111002</v>
       </c>
       <c r="E14">
         <v>1.313566854289808</v>
       </c>
       <c r="F14">
-        <v>-0.7847661214347668</v>
+        <v>-0.7847661214347882</v>
       </c>
       <c r="G14">
-        <v>0.7097639499614663</v>
+        <v>0.7097639499614432</v>
       </c>
       <c r="H14">
         <v>0.6892846694496031</v>
       </c>
       <c r="I14">
-        <v>-0.667388739739474</v>
+        <v>-0.6673887397394737</v>
       </c>
       <c r="J14">
-        <v>0.8451165247907121</v>
+        <v>0.8451165247907125</v>
       </c>
       <c r="K14">
-        <v>0.03459499479732935</v>
+        <v>0.03459499479732966</v>
       </c>
       <c r="L14">
-        <v>-0.1102531577185252</v>
+        <v>-0.110253157718525</v>
       </c>
       <c r="M14">
-        <v>1.110223024625157e-15</v>
+        <v>7.771561172376096e-16</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2786,31 +2786,31 @@
         <v>-1.566501721700354</v>
       </c>
       <c r="E15">
-        <v>1.606110177747632</v>
+        <v>1.606110177747633</v>
       </c>
       <c r="F15">
-        <v>-0.6909772706164415</v>
+        <v>-0.6909772706164626</v>
       </c>
       <c r="G15">
-        <v>0.6737990078468001</v>
+        <v>0.6737990078467799</v>
       </c>
       <c r="H15">
-        <v>0.6113954273016207</v>
+        <v>0.6113954273016209</v>
       </c>
       <c r="I15">
-        <v>-1.30679943581377</v>
+        <v>-1.306799435813769</v>
       </c>
       <c r="J15">
-        <v>-0.4332829504431299</v>
+        <v>-0.4332829504431304</v>
       </c>
       <c r="K15">
-        <v>-0.1153230909636796</v>
+        <v>-0.115323090963679</v>
       </c>
       <c r="L15">
-        <v>-0.06278902884880899</v>
+        <v>-0.0627890288488086</v>
       </c>
       <c r="M15">
-        <v>2.914335439641036e-16</v>
+        <v>8.326672684688674e-16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2824,34 +2824,34 @@
         <v>5.627147537</v>
       </c>
       <c r="D16">
-        <v>-2.348682385830207</v>
+        <v>-2.348682385830205</v>
       </c>
       <c r="E16">
-        <v>0.3599797940403066</v>
+        <v>0.3599797940403075</v>
       </c>
       <c r="F16">
-        <v>0.7910798196656331</v>
+        <v>0.7910798196656513</v>
       </c>
       <c r="G16">
-        <v>-0.595671336168166</v>
+        <v>-0.5956713361681423</v>
       </c>
       <c r="H16">
-        <v>-0.3150218016248468</v>
+        <v>-0.3150218016248463</v>
       </c>
       <c r="I16">
-        <v>-0.1206306179560808</v>
+        <v>-0.1206306179560811</v>
       </c>
       <c r="J16">
-        <v>-0.07617495853107503</v>
+        <v>-0.07617495853107552</v>
       </c>
       <c r="K16">
-        <v>0.033559788513734</v>
+        <v>0.03355978851373385</v>
       </c>
       <c r="L16">
-        <v>-0.2033875773799228</v>
+        <v>-0.2033875773799227</v>
       </c>
       <c r="M16">
-        <v>1.332267629550188e-15</v>
+        <v>1.498801083243961e-15</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2865,34 +2865,34 @@
         <v>5.625769194</v>
       </c>
       <c r="D17">
-        <v>-2.363645816654789</v>
+        <v>-2.363645816654788</v>
       </c>
       <c r="E17">
-        <v>-0.1626402313409699</v>
+        <v>-0.1626402313409687</v>
       </c>
       <c r="F17">
-        <v>1.849390973655702</v>
+        <v>1.8493909736557</v>
       </c>
       <c r="G17">
-        <v>0.07383871237240279</v>
+        <v>0.07383871237246285</v>
       </c>
       <c r="H17">
-        <v>0.7857887327395703</v>
+        <v>0.7857887327395681</v>
       </c>
       <c r="I17">
-        <v>-0.2872400895689187</v>
+        <v>-0.2872400895689181</v>
       </c>
       <c r="J17">
-        <v>-0.09206594769213448</v>
+        <v>-0.09206594769213511</v>
       </c>
       <c r="K17">
-        <v>0.5479301709574376</v>
+        <v>0.5479301709574366</v>
       </c>
       <c r="L17">
-        <v>-0.04375546179168133</v>
+        <v>-0.04375546179168099</v>
       </c>
       <c r="M17">
-        <v>1.77635683940025e-15</v>
+        <v>9.992007221626409e-16</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2906,34 +2906,34 @@
         <v>5.626879797</v>
       </c>
       <c r="D18">
-        <v>-3.607422345193339</v>
+        <v>-3.607422345193337</v>
       </c>
       <c r="E18">
-        <v>0.9717070893831031</v>
+        <v>0.971707089383104</v>
       </c>
       <c r="F18">
-        <v>0.2205452253811461</v>
+        <v>0.2205452253811566</v>
       </c>
       <c r="G18">
-        <v>-0.2807361526137092</v>
+        <v>-0.2807361526137007</v>
       </c>
       <c r="H18">
-        <v>0.8000767782577911</v>
+        <v>0.8000767782577924</v>
       </c>
       <c r="I18">
-        <v>-0.7731934545750822</v>
+        <v>-0.7731934545750816</v>
       </c>
       <c r="J18">
-        <v>-0.07623890859639917</v>
+        <v>-0.07623890859639955</v>
       </c>
       <c r="K18">
-        <v>0.4060675178769846</v>
+        <v>0.4060675178769843</v>
       </c>
       <c r="L18">
-        <v>-0.07897320723306023</v>
+        <v>-0.07897320723305967</v>
       </c>
       <c r="M18">
-        <v>1.332267629550188e-15</v>
+        <v>1.165734175856414e-15</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2947,34 +2947,34 @@
         <v>5.629521358</v>
       </c>
       <c r="D19">
-        <v>2.831173875099927</v>
+        <v>2.831173875099922</v>
       </c>
       <c r="E19">
         <v>11.32148078960475</v>
       </c>
       <c r="F19">
-        <v>-2.461303720949333</v>
+        <v>-2.461303720949299</v>
       </c>
       <c r="G19">
-        <v>-1.101115931365102</v>
+        <v>-1.10111593136518</v>
       </c>
       <c r="H19">
-        <v>-1.399064964436693</v>
+        <v>-1.399064964436689</v>
       </c>
       <c r="I19">
-        <v>0.1823983565380297</v>
+        <v>0.1823983565380295</v>
       </c>
       <c r="J19">
         <v>0.2935077442551655</v>
       </c>
       <c r="K19">
-        <v>-0.1469522880145982</v>
+        <v>-0.1469522880145966</v>
       </c>
       <c r="L19">
-        <v>-0.01080742894826957</v>
+        <v>-0.0108074289482698</v>
       </c>
       <c r="M19">
-        <v>1.332267629550188e-15</v>
+        <v>2.012279232133096e-15</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2988,34 +2988,34 @@
         <v>5.633355534</v>
       </c>
       <c r="D20">
-        <v>7.044075813701887</v>
+        <v>7.044075813701884</v>
       </c>
       <c r="E20">
-        <v>-0.2709205671476987</v>
+        <v>-0.2709205671477031</v>
       </c>
       <c r="F20">
-        <v>0.2007494189651797</v>
+        <v>0.2007494189649486</v>
       </c>
       <c r="G20">
-        <v>6.863363375878144</v>
+        <v>6.863363375878142</v>
       </c>
       <c r="H20">
-        <v>-3.754129018530212</v>
+        <v>-3.754129018530226</v>
       </c>
       <c r="I20">
-        <v>-0.8586596316580659</v>
+        <v>-0.8586596316580677</v>
       </c>
       <c r="J20">
-        <v>-0.02817975729839629</v>
+        <v>-0.0281797572983986</v>
       </c>
       <c r="K20">
-        <v>0.2477027012940173</v>
+        <v>0.2477027012940181</v>
       </c>
       <c r="L20">
-        <v>-0.08595687839461406</v>
+        <v>-0.08595687839461186</v>
       </c>
       <c r="M20">
-        <v>-1.332267629550188e-15</v>
+        <v>4.996003610813204e-16</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3029,34 +3029,34 @@
         <v>5.625229107</v>
       </c>
       <c r="D21">
-        <v>-1.84671622235195</v>
+        <v>-1.846716222351949</v>
       </c>
       <c r="E21">
-        <v>0.4503701691778499</v>
+        <v>0.4503701691778504</v>
       </c>
       <c r="F21">
-        <v>-0.6096899828386875</v>
+        <v>-0.6096899828386475</v>
       </c>
       <c r="G21">
-        <v>-1.310915797144273</v>
+        <v>-1.310915797144294</v>
       </c>
       <c r="H21">
-        <v>-0.9004838052757365</v>
+        <v>-0.9004838052757315</v>
       </c>
       <c r="I21">
-        <v>-1.580098174656081</v>
+        <v>-1.580098174656082</v>
       </c>
       <c r="J21">
-        <v>-0.3369165210440881</v>
+        <v>-0.3369165210440891</v>
       </c>
       <c r="K21">
-        <v>-0.1117382837573948</v>
+        <v>-0.111738283757394</v>
       </c>
       <c r="L21">
-        <v>-0.07588838975901341</v>
+        <v>-0.07588838975901308</v>
       </c>
       <c r="M21">
-        <v>-5.551115123125783e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3070,34 +3070,34 @@
         <v>5.629099108</v>
       </c>
       <c r="D22">
-        <v>-3.848151734577436</v>
+        <v>-3.848151734577433</v>
       </c>
       <c r="E22">
-        <v>2.316465532918889</v>
+        <v>2.31646553291889</v>
       </c>
       <c r="F22">
-        <v>-0.3962774934740128</v>
+        <v>-0.3962774934740261</v>
       </c>
       <c r="G22">
-        <v>0.3064973119704343</v>
+        <v>0.3064973119704187</v>
       </c>
       <c r="H22">
-        <v>-1.227412935373484</v>
+        <v>-1.227412935373483</v>
       </c>
       <c r="I22">
         <v>-1.071090736940413</v>
       </c>
       <c r="J22">
-        <v>-0.5834523153317099</v>
+        <v>-0.5834523153317116</v>
       </c>
       <c r="K22">
-        <v>-0.08970591171145301</v>
+        <v>-0.08970591171145287</v>
       </c>
       <c r="L22">
-        <v>0.3032174670462899</v>
+        <v>0.3032174670462914</v>
       </c>
       <c r="M22">
-        <v>1.554312234475219e-15</v>
+        <v>1.304512053934559e-15</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3111,34 +3111,34 @@
         <v>5.627469814</v>
       </c>
       <c r="D23">
-        <v>-3.311213848206393</v>
+        <v>-3.31121384820639</v>
       </c>
       <c r="E23">
-        <v>-0.1235546385210211</v>
+        <v>-0.1235546385210198</v>
       </c>
       <c r="F23">
-        <v>0.5635374930573335</v>
+        <v>0.5635374930573519</v>
       </c>
       <c r="G23">
-        <v>-0.5294373958031711</v>
+        <v>-0.5294373958031526</v>
       </c>
       <c r="H23">
-        <v>0.5128729997952373</v>
+        <v>0.512872999795238</v>
       </c>
       <c r="I23">
-        <v>-0.6101536127671809</v>
+        <v>-0.6101536127671805</v>
       </c>
       <c r="J23">
-        <v>0.6245697139388992</v>
+        <v>0.624569713938899</v>
       </c>
       <c r="K23">
-        <v>0.07524461122212266</v>
+        <v>0.07524461122212245</v>
       </c>
       <c r="L23">
-        <v>0.002314763501185979</v>
+        <v>0.002314763501185535</v>
       </c>
       <c r="M23">
-        <v>1.998401444325282e-15</v>
+        <v>9.575673587391975e-16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3155,31 +3155,31 @@
         <v>10.67457008166765</v>
       </c>
       <c r="E24">
-        <v>-4.014101558158657</v>
+        <v>-4.014101558158658</v>
       </c>
       <c r="F24">
-        <v>1.631691930040576</v>
+        <v>1.631691930040573</v>
       </c>
       <c r="G24">
-        <v>-0.02605601591523533</v>
+        <v>-0.02605601591518907</v>
       </c>
       <c r="H24">
-        <v>-2.114841107785317</v>
+        <v>-2.11484110778532</v>
       </c>
       <c r="I24">
-        <v>0.7206339787702247</v>
+        <v>0.7206339787702225</v>
       </c>
       <c r="J24">
-        <v>1.146136304843836</v>
+        <v>1.146136304843837</v>
       </c>
       <c r="K24">
-        <v>-0.02346914993130527</v>
+        <v>-0.02346914993130489</v>
       </c>
       <c r="L24">
-        <v>0.1869406588510955</v>
+        <v>0.1869406588510949</v>
       </c>
       <c r="M24">
-        <v>-2.220446049250313e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3193,34 +3193,34 @@
         <v>5.631863177</v>
       </c>
       <c r="D25">
-        <v>-3.716942206652007</v>
+        <v>-3.716942206652006</v>
       </c>
       <c r="E25">
-        <v>-0.01206674479963313</v>
+        <v>-0.01206674479963214</v>
       </c>
       <c r="F25">
-        <v>0.4299286317958833</v>
+        <v>0.4299286317958892</v>
       </c>
       <c r="G25">
-        <v>-0.2328811662966666</v>
+        <v>-0.2328811662966546</v>
       </c>
       <c r="H25">
-        <v>-0.6858385673748272</v>
+        <v>-0.685838567374828</v>
       </c>
       <c r="I25">
-        <v>0.4039946786478892</v>
+        <v>0.4039946786478888</v>
       </c>
       <c r="J25">
-        <v>0.4817245550804552</v>
+        <v>0.4817245550804549</v>
       </c>
       <c r="K25">
         <v>-0.5285816793878836</v>
       </c>
       <c r="L25">
-        <v>-0.08312376027382484</v>
+        <v>-0.08312376027382506</v>
       </c>
       <c r="M25">
-        <v>1.554312234475219e-15</v>
+        <v>6.210310043996969e-16</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3234,34 +3234,34 @@
         <v>5.62093788</v>
       </c>
       <c r="D26">
-        <v>-4.241779052237242</v>
+        <v>-4.24177905223724</v>
       </c>
       <c r="E26">
-        <v>-0.1326549523166412</v>
+        <v>-0.1326549523166404</v>
       </c>
       <c r="F26">
-        <v>-0.05653690009486455</v>
+        <v>-0.056536900094852</v>
       </c>
       <c r="G26">
-        <v>-0.4038531607488762</v>
+        <v>-0.4038531607488779</v>
       </c>
       <c r="H26">
-        <v>0.1267075813829076</v>
+        <v>0.1267075813829084</v>
       </c>
       <c r="I26">
         <v>0.1962133579976632</v>
       </c>
       <c r="J26">
-        <v>-0.5895000605518225</v>
+        <v>-0.5895000605518228</v>
       </c>
       <c r="K26">
-        <v>-0.1967273684747945</v>
+        <v>-0.1967273684747952</v>
       </c>
       <c r="L26">
-        <v>0.07935384288122807</v>
+        <v>0.07935384288122771</v>
       </c>
       <c r="M26">
-        <v>1.110223024625157e-15</v>
+        <v>6.38378239159465e-16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3275,34 +3275,34 @@
         <v>5.622025945</v>
       </c>
       <c r="D27">
-        <v>-6.865732644143503</v>
+        <v>-6.8657326441435</v>
       </c>
       <c r="E27">
-        <v>0.0004891047038832543</v>
+        <v>0.0004891047038852693</v>
       </c>
       <c r="F27">
-        <v>-0.2537383793958913</v>
+        <v>-0.253738379395867</v>
       </c>
       <c r="G27">
-        <v>-0.8121646306874772</v>
+        <v>-0.812164630687487</v>
       </c>
       <c r="H27">
-        <v>-0.7212067817034867</v>
+        <v>-0.7212067817034842</v>
       </c>
       <c r="I27">
-        <v>0.7594767919268034</v>
+        <v>0.7594767919268031</v>
       </c>
       <c r="J27">
-        <v>-0.7264419006532971</v>
+        <v>-0.7264419006532978</v>
       </c>
       <c r="K27">
-        <v>0.09786197065829134</v>
+        <v>0.09786197065829098</v>
       </c>
       <c r="L27">
         <v>-0.02596498418145776</v>
       </c>
       <c r="M27">
-        <v>8.881784197001252e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3316,34 +3316,34 @@
         <v>5.622090735</v>
       </c>
       <c r="D28">
-        <v>-6.923908423041535</v>
+        <v>-6.923908423041531</v>
       </c>
       <c r="E28">
-        <v>-2.882951733115955</v>
+        <v>-2.882951733115953</v>
       </c>
       <c r="F28">
-        <v>-0.03880859958181127</v>
+        <v>-0.03880859958180889</v>
       </c>
       <c r="G28">
-        <v>-0.1015527999688428</v>
+        <v>-0.1015527999688467</v>
       </c>
       <c r="H28">
-        <v>-0.5859572866885439</v>
+        <v>-0.5859572866885441</v>
       </c>
       <c r="I28">
-        <v>1.801028588564744</v>
+        <v>1.801028588564743</v>
       </c>
       <c r="J28">
-        <v>-0.3184388915684789</v>
+        <v>-0.3184388915684795</v>
       </c>
       <c r="K28">
-        <v>0.3092069309330073</v>
+        <v>0.3092069309330067</v>
       </c>
       <c r="L28">
-        <v>-0.0516943865502153</v>
+        <v>-0.05169438655021574</v>
       </c>
       <c r="M28">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3357,34 +3357,34 @@
         <v>5.624090002</v>
       </c>
       <c r="D29">
-        <v>-8.216120501729097</v>
+        <v>-8.216120501729092</v>
       </c>
       <c r="E29">
-        <v>-2.275204204000178</v>
+        <v>-2.275204204000176</v>
       </c>
       <c r="F29">
-        <v>0.01476218507130201</v>
+        <v>0.01476218507130157</v>
       </c>
       <c r="G29">
-        <v>-0.07900990111660874</v>
+        <v>-0.07900990111661294</v>
       </c>
       <c r="H29">
         <v>-1.712044136942893</v>
       </c>
       <c r="I29">
-        <v>2.243652272892312</v>
+        <v>2.243652272892311</v>
       </c>
       <c r="J29">
-        <v>0.1157015416272995</v>
+        <v>0.1157015416272994</v>
       </c>
       <c r="K29">
-        <v>0.1488394270645115</v>
+        <v>0.1488394270645106</v>
       </c>
       <c r="L29">
-        <v>0.07855732150754745</v>
+        <v>0.07855732150754724</v>
       </c>
       <c r="M29">
-        <v>2.664535259100376e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3398,34 +3398,34 @@
         <v>5.624522907</v>
       </c>
       <c r="D30">
-        <v>2.400816658455148</v>
+        <v>2.40081665845515</v>
       </c>
       <c r="E30">
-        <v>-6.617846099725123</v>
+        <v>-6.617846099725127</v>
       </c>
       <c r="F30">
-        <v>-3.404700525448705</v>
+        <v>-3.404700525448871</v>
       </c>
       <c r="G30">
-        <v>5.242816426201016</v>
+        <v>5.242816426200913</v>
       </c>
       <c r="H30">
-        <v>2.309157475640119</v>
+        <v>2.309157475640112</v>
       </c>
       <c r="I30">
-        <v>0.06295778559750424</v>
+        <v>0.0629577855975057</v>
       </c>
       <c r="J30">
-        <v>-0.2816595963498179</v>
+        <v>-0.2816595963498167</v>
       </c>
       <c r="K30">
-        <v>-0.3578997192788246</v>
+        <v>-0.3578997192788235</v>
       </c>
       <c r="L30">
-        <v>0.1337291055919125</v>
+        <v>0.133729105591913</v>
       </c>
       <c r="M30">
-        <v>-1.110223024625157e-15</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3439,34 +3439,34 @@
         <v>5.622928924</v>
       </c>
       <c r="D31">
-        <v>-6.707241231861732</v>
+        <v>-6.707241231861728</v>
       </c>
       <c r="E31">
-        <v>-2.069990605439065</v>
+        <v>-2.069990605439064</v>
       </c>
       <c r="F31">
-        <v>-1.247668229312248</v>
+        <v>-1.247668229312276</v>
       </c>
       <c r="G31">
-        <v>0.7479218200478179</v>
+        <v>0.7479218200477729</v>
       </c>
       <c r="H31">
         <v>-1.87953249572739</v>
       </c>
       <c r="I31">
-        <v>1.638929287224877</v>
+        <v>1.638929287224875</v>
       </c>
       <c r="J31">
-        <v>-0.4958672187879063</v>
+        <v>-0.4958672187879065</v>
       </c>
       <c r="K31">
-        <v>0.1715365444897825</v>
+        <v>0.1715365444897821</v>
       </c>
       <c r="L31">
-        <v>-0.0418551041127366</v>
+        <v>-0.04185510411273619</v>
       </c>
       <c r="M31">
-        <v>1.77635683940025e-15</v>
+        <v>-5.551115123125783e-17</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -3480,34 +3480,34 @@
         <v>5.626621009</v>
       </c>
       <c r="D32">
-        <v>-5.760560279959305</v>
+        <v>-5.760560279959302</v>
       </c>
       <c r="E32">
-        <v>-0.9581692229667885</v>
+        <v>-0.9581692229667872</v>
       </c>
       <c r="F32">
-        <v>-0.006490272267445597</v>
+        <v>-0.006490272267438557</v>
       </c>
       <c r="G32">
-        <v>-0.2186412556792669</v>
+        <v>-0.218641255679268</v>
       </c>
       <c r="H32">
-        <v>0.08847588140507509</v>
+        <v>0.08847588140507598</v>
       </c>
       <c r="I32">
-        <v>0.3843167912107305</v>
+        <v>0.3843167912107307</v>
       </c>
       <c r="J32">
-        <v>-0.461813446053916</v>
+        <v>-0.4618134460539165</v>
       </c>
       <c r="K32">
-        <v>0.05607297682118293</v>
+        <v>0.0560729768211824</v>
       </c>
       <c r="L32">
-        <v>0.05883237119230877</v>
+        <v>0.05883237119230889</v>
       </c>
       <c r="M32">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3521,34 +3521,34 @@
         <v>5.626615979</v>
       </c>
       <c r="D33">
-        <v>-5.032786913928758</v>
+        <v>-5.032786913928756</v>
       </c>
       <c r="E33">
-        <v>-0.4979157351399334</v>
+        <v>-0.4979157351399319</v>
       </c>
       <c r="F33">
-        <v>-0.5444438937186689</v>
+        <v>-0.5444438937186534</v>
       </c>
       <c r="G33">
-        <v>-0.5151206587872602</v>
+        <v>-0.5151206587872788</v>
       </c>
       <c r="H33">
-        <v>-0.3572163136307729</v>
+        <v>-0.3572163136307708</v>
       </c>
       <c r="I33">
-        <v>0.1591787762918066</v>
+        <v>0.1591787762918063</v>
       </c>
       <c r="J33">
-        <v>-0.7261020149965379</v>
+        <v>-0.7261020149965386</v>
       </c>
       <c r="K33">
-        <v>-0.200778551561732</v>
+        <v>-0.2007785515617321</v>
       </c>
       <c r="L33">
         <v>0.006446022214219749</v>
       </c>
       <c r="M33">
-        <v>6.661338147750939e-16</v>
+        <v>3.122502256758253e-16</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3562,34 +3562,34 @@
         <v>5.626640459</v>
       </c>
       <c r="D34">
-        <v>-4.917198711619525</v>
+        <v>-4.917198711619521</v>
       </c>
       <c r="E34">
-        <v>-0.4899583543389117</v>
+        <v>-0.4899583543389104</v>
       </c>
       <c r="F34">
-        <v>0.6296312654452415</v>
+        <v>0.6296312654452491</v>
       </c>
       <c r="G34">
-        <v>-0.2274181087144677</v>
+        <v>-0.2274181087144474</v>
       </c>
       <c r="H34">
-        <v>0.28850847441656</v>
+        <v>0.2885084744165594</v>
       </c>
       <c r="I34">
-        <v>0.5949749858467048</v>
+        <v>0.5949749858467044</v>
       </c>
       <c r="J34">
         <v>0.6375217214662403</v>
       </c>
       <c r="K34">
-        <v>-0.4097906120026895</v>
+        <v>-0.40979061200269</v>
       </c>
       <c r="L34">
-        <v>-0.04806375903143124</v>
+        <v>-0.0480637590314319</v>
       </c>
       <c r="M34">
-        <v>1.77635683940025e-15</v>
+        <v>5.551115123125783e-16</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3603,34 +3603,34 @@
         <v>5.626249614</v>
       </c>
       <c r="D35">
-        <v>-6.494379460923119</v>
+        <v>-6.494379460923113</v>
       </c>
       <c r="E35">
-        <v>0.1337153108823022</v>
+        <v>0.1337153108823031</v>
       </c>
       <c r="F35">
-        <v>-1.000071360376484</v>
+        <v>-1.000071360376477</v>
       </c>
       <c r="G35">
-        <v>-0.3381828297774472</v>
+        <v>-0.3381828297774824</v>
       </c>
       <c r="H35">
-        <v>-1.216505553788258</v>
+        <v>-1.216505553788254</v>
       </c>
       <c r="I35">
-        <v>0.3828559704486674</v>
+        <v>0.3828559704486665</v>
       </c>
       <c r="J35">
-        <v>-1.16317880119609</v>
+        <v>-1.163178801196091</v>
       </c>
       <c r="K35">
-        <v>-0.2736371851087475</v>
+        <v>-0.2736371851087472</v>
       </c>
       <c r="L35">
-        <v>-0.03015120371409866</v>
+        <v>-0.03015120371409941</v>
       </c>
       <c r="M35">
-        <v>4.440892098500626e-16</v>
+        <v>-1.52655665885959e-16</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3644,34 +3644,34 @@
         <v>5.624494188</v>
       </c>
       <c r="D36">
-        <v>-5.024299955681854</v>
+        <v>-5.02429995568185</v>
       </c>
       <c r="E36">
-        <v>-1.97726383747226</v>
+        <v>-1.977263837472259</v>
       </c>
       <c r="F36">
-        <v>-0.2673290858752083</v>
+        <v>-0.26732908587522</v>
       </c>
       <c r="G36">
-        <v>0.4301282692330611</v>
+        <v>0.4301282692330543</v>
       </c>
       <c r="H36">
-        <v>0.9702213418972447</v>
+        <v>0.9702213418972442</v>
       </c>
       <c r="I36">
-        <v>-0.384397700640693</v>
+        <v>-0.3843977006406927</v>
       </c>
       <c r="J36">
-        <v>1.221617523693498</v>
+        <v>1.221617523693499</v>
       </c>
       <c r="K36">
-        <v>-0.1241220263707704</v>
+        <v>-0.1241220263707703</v>
       </c>
       <c r="L36">
-        <v>-0.04393155513826515</v>
+        <v>-0.0439315551382653</v>
       </c>
       <c r="M36">
-        <v>1.332267629550188e-15</v>
+        <v>1.27675647831893e-15</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3685,34 +3685,34 @@
         <v>5.622374787</v>
       </c>
       <c r="D37">
-        <v>-6.128289686999624</v>
+        <v>-6.128289686999621</v>
       </c>
       <c r="E37">
-        <v>-0.9628093380832727</v>
+        <v>-0.9628093380832707</v>
       </c>
       <c r="F37">
-        <v>-0.1761149784282144</v>
+        <v>-0.1761149784282116</v>
       </c>
       <c r="G37">
-        <v>-0.09260060930959019</v>
+        <v>-0.09260060930959672</v>
       </c>
       <c r="H37">
-        <v>-0.2550587136275357</v>
+        <v>-0.2550587136275347</v>
       </c>
       <c r="I37">
-        <v>-0.01123325946723261</v>
+        <v>-0.01123325946723296</v>
       </c>
       <c r="J37">
-        <v>1.334703594210976</v>
+        <v>1.334703594210977</v>
       </c>
       <c r="K37">
-        <v>-0.05754841943046594</v>
+        <v>-0.05754841943046671</v>
       </c>
       <c r="L37">
-        <v>0.04268830119822021</v>
+        <v>0.04268830119821976</v>
       </c>
       <c r="M37">
-        <v>1.77635683940025e-15</v>
+        <v>1.033895191682177e-15</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3726,34 +3726,34 @@
         <v>5.624641205</v>
       </c>
       <c r="D38">
-        <v>-5.537866174667885</v>
+        <v>-5.537866174667881</v>
       </c>
       <c r="E38">
-        <v>-0.6393966794978744</v>
+        <v>-0.6393966794978736</v>
       </c>
       <c r="F38">
-        <v>-0.1265806955051684</v>
+        <v>-0.1265806955051827</v>
       </c>
       <c r="G38">
-        <v>0.455300215666063</v>
+        <v>0.4553002156660593</v>
       </c>
       <c r="H38">
-        <v>0.3026126582938584</v>
+        <v>0.3026126582938585</v>
       </c>
       <c r="I38">
-        <v>-0.7764120278179096</v>
+        <v>-0.776412027817909</v>
       </c>
       <c r="J38">
-        <v>0.687760999745332</v>
+        <v>0.6877609997453316</v>
       </c>
       <c r="K38">
-        <v>0.4010897864606547</v>
+        <v>0.4010897864606542</v>
       </c>
       <c r="L38">
-        <v>0.1932702841996124</v>
+        <v>0.193270284199613</v>
       </c>
       <c r="M38">
-        <v>1.332267629550188e-15</v>
+        <v>1.207367539279858e-15</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3767,34 +3767,34 @@
         <v>5.626901664</v>
       </c>
       <c r="D39">
-        <v>-6.499106605167846</v>
+        <v>-6.499106605167842</v>
       </c>
       <c r="E39">
-        <v>-1.672790472131306</v>
+        <v>-1.672790472131304</v>
       </c>
       <c r="F39">
-        <v>-0.3303187387997421</v>
+        <v>-0.3303187387997466</v>
       </c>
       <c r="G39">
-        <v>0.1519961643679859</v>
+        <v>0.1519961643679757</v>
       </c>
       <c r="H39">
-        <v>0.2989031823190695</v>
+        <v>0.2989031823190702</v>
       </c>
       <c r="I39">
-        <v>-0.6260395464811431</v>
+        <v>-0.6260395464811433</v>
       </c>
       <c r="J39">
-        <v>1.144804145844741</v>
+        <v>1.144804145844742</v>
       </c>
       <c r="K39">
-        <v>-0.01936190488533596</v>
+        <v>-0.01936190488533618</v>
       </c>
       <c r="L39">
-        <v>-0.06524363943824171</v>
+        <v>-0.06524363943824119</v>
       </c>
       <c r="M39">
-        <v>4.440892098500626e-16</v>
+        <v>1.137978600240785e-15</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3808,34 +3808,34 @@
         <v>5.622880567</v>
       </c>
       <c r="D40">
-        <v>-1.813234064858827</v>
+        <v>-1.813234064858825</v>
       </c>
       <c r="E40">
-        <v>-1.424117089613493</v>
+        <v>-1.424117089613492</v>
       </c>
       <c r="F40">
-        <v>1.020940419435413</v>
+        <v>1.020940419435381</v>
       </c>
       <c r="G40">
-        <v>1.081006176225129</v>
+        <v>1.081006176225165</v>
       </c>
       <c r="H40">
-        <v>2.1741789810317</v>
+        <v>2.174178981031697</v>
       </c>
       <c r="I40">
-        <v>-1.114070527392419</v>
+        <v>-1.114070527392418</v>
       </c>
       <c r="J40">
-        <v>-0.4207720710118663</v>
+        <v>-0.4207720710118665</v>
       </c>
       <c r="K40">
-        <v>-0.04740446118084035</v>
+        <v>-0.04740446118084118</v>
       </c>
       <c r="L40">
-        <v>-0.01997504120568516</v>
+        <v>-0.01997504120568566</v>
       </c>
       <c r="M40">
-        <v>3.33066907387547e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
     </row>
   </sheetData>
@@ -3906,31 +3906,31 @@
         <v>9.891167867252939</v>
       </c>
       <c r="E2">
-        <v>-3.124467525010956</v>
+        <v>-3.124467525010962</v>
       </c>
       <c r="F2">
-        <v>-1.323435914274862</v>
+        <v>-1.323435914274844</v>
       </c>
       <c r="G2">
-        <v>2.268164285346498</v>
+        <v>2.268164285346497</v>
       </c>
       <c r="H2">
-        <v>5.260114680494102</v>
+        <v>5.2601146804941</v>
       </c>
       <c r="I2">
-        <v>-0.3511279371123341</v>
+        <v>-0.351127937112332</v>
       </c>
       <c r="J2">
-        <v>0.2084144606689352</v>
+        <v>0.208414460668937</v>
       </c>
       <c r="K2">
-        <v>0.1948917773334025</v>
+        <v>0.1948917773334023</v>
       </c>
       <c r="L2">
         <v>-0.00603650922075305</v>
       </c>
       <c r="M2">
-        <v>-3.552713678800501e-15</v>
+        <v>-7.771561172376096e-16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3944,34 +3944,34 @@
         <v>5.628913721</v>
       </c>
       <c r="D3">
-        <v>7.245943792897854</v>
+        <v>7.245943792897855</v>
       </c>
       <c r="E3">
-        <v>-4.191002638661937</v>
+        <v>-4.19100263866191</v>
       </c>
       <c r="F3">
-        <v>7.085869545518418</v>
+        <v>7.08586954551843</v>
       </c>
       <c r="G3">
-        <v>-1.338216796464894</v>
+        <v>-1.338216796464916</v>
       </c>
       <c r="H3">
-        <v>0.03933099073761889</v>
+        <v>0.03933099073760948</v>
       </c>
       <c r="I3">
-        <v>0.0608086233897016</v>
+        <v>0.06080862338970227</v>
       </c>
       <c r="J3">
-        <v>-0.2528143775190886</v>
+        <v>-0.2528143775190898</v>
       </c>
       <c r="K3">
-        <v>-0.1030774201989577</v>
+        <v>-0.103077420198956</v>
       </c>
       <c r="L3">
-        <v>0.07861020649786848</v>
+        <v>0.07861020649786732</v>
       </c>
       <c r="M3">
-        <v>-2.220446049250313e-15</v>
+        <v>2.220446049250313e-15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3988,31 +3988,31 @@
         <v>7.168045653155636</v>
       </c>
       <c r="E4">
-        <v>-4.170925372530803</v>
+        <v>-4.17092537253078</v>
       </c>
       <c r="F4">
-        <v>6.605654249321996</v>
+        <v>6.605654249322008</v>
       </c>
       <c r="G4">
-        <v>-1.158542729287732</v>
+        <v>-1.158542729287752</v>
       </c>
       <c r="H4">
-        <v>0.3324283899895741</v>
+        <v>0.3324283899895666</v>
       </c>
       <c r="I4">
-        <v>-0.2990155866415903</v>
+        <v>-0.2990155866415891</v>
       </c>
       <c r="J4">
-        <v>0.2573015990877322</v>
+        <v>0.2573015990877303</v>
       </c>
       <c r="K4">
-        <v>-0.2942289654394064</v>
+        <v>-0.2942289654394051</v>
       </c>
       <c r="L4">
-        <v>-0.08924316669888675</v>
+        <v>-0.08924316669888865</v>
       </c>
       <c r="M4">
-        <v>-8.881784197001252e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4026,34 +4026,34 @@
         <v>5.628571907</v>
       </c>
       <c r="D5">
-        <v>6.818368179599303</v>
+        <v>6.818368179599305</v>
       </c>
       <c r="E5">
-        <v>-3.737862516523617</v>
+        <v>-3.737862516523592</v>
       </c>
       <c r="F5">
-        <v>6.505307953948876</v>
+        <v>6.505307953948885</v>
       </c>
       <c r="G5">
-        <v>-1.417964951056546</v>
+        <v>-1.417964951056566</v>
       </c>
       <c r="H5">
-        <v>-0.065799796980285</v>
+        <v>-0.06579979698029277</v>
       </c>
       <c r="I5">
-        <v>-0.7967990938545337</v>
+        <v>-0.7967990938545336</v>
       </c>
       <c r="J5">
-        <v>0.7896236338656667</v>
+        <v>0.789623633865665</v>
       </c>
       <c r="K5">
-        <v>0.3997337331014627</v>
+        <v>0.3997337331014628</v>
       </c>
       <c r="L5">
-        <v>-0.04539265247822007</v>
+        <v>-0.04539265247822089</v>
       </c>
       <c r="M5">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4070,28 +4070,28 @@
         <v>10.17262155611554</v>
       </c>
       <c r="E6">
-        <v>4.840525406030753</v>
+        <v>4.840525406030739</v>
       </c>
       <c r="F6">
-        <v>-3.472908517634723</v>
+        <v>-3.472908517634744</v>
       </c>
       <c r="G6">
-        <v>-1.104081076932819</v>
+        <v>-1.104081076932805</v>
       </c>
       <c r="H6">
-        <v>-0.6913159353534228</v>
+        <v>-0.6913159353534241</v>
       </c>
       <c r="I6">
-        <v>-0.7480413386255128</v>
+        <v>-0.7480413386255148</v>
       </c>
       <c r="J6">
-        <v>-0.2056013424827779</v>
+        <v>-0.2056013424827786</v>
       </c>
       <c r="K6">
-        <v>0.1857586391928575</v>
+        <v>0.1857586391928576</v>
       </c>
       <c r="L6">
-        <v>0.1319989063497307</v>
+        <v>0.1319989063497289</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4108,34 +4108,34 @@
         <v>5.629580687</v>
       </c>
       <c r="D7">
-        <v>10.18221891262547</v>
+        <v>10.18221891262548</v>
       </c>
       <c r="E7">
-        <v>4.878191429743786</v>
+        <v>4.878191429743772</v>
       </c>
       <c r="F7">
-        <v>-3.427266701063796</v>
+        <v>-3.427266701063818</v>
       </c>
       <c r="G7">
-        <v>-1.059698620461018</v>
+        <v>-1.059698620461004</v>
       </c>
       <c r="H7">
-        <v>-0.7139397956252372</v>
+        <v>-0.7139397956252381</v>
       </c>
       <c r="I7">
-        <v>-0.2981644872902631</v>
+        <v>-0.2981644872902651</v>
       </c>
       <c r="J7">
-        <v>0.03729962243260352</v>
+        <v>0.0372996224326026</v>
       </c>
       <c r="K7">
-        <v>-0.06350907268308287</v>
+        <v>-0.06350907268308219</v>
       </c>
       <c r="L7">
-        <v>0.03859176800818243</v>
+        <v>0.03859176800818176</v>
       </c>
       <c r="M7">
-        <v>-1.332267629550188e-15</v>
+        <v>-6.661338147750939e-16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4149,34 +4149,34 @@
         <v>5.629185818</v>
       </c>
       <c r="D8">
-        <v>10.13303978765428</v>
+        <v>10.13303978765429</v>
       </c>
       <c r="E8">
-        <v>4.873822302564593</v>
+        <v>4.87382230256458</v>
       </c>
       <c r="F8">
-        <v>-3.422343521371062</v>
+        <v>-3.422343521371084</v>
       </c>
       <c r="G8">
-        <v>-1.065293323367568</v>
+        <v>-1.065293323367553</v>
       </c>
       <c r="H8">
-        <v>-0.7186543606030158</v>
+        <v>-0.7186543606030167</v>
       </c>
       <c r="I8">
-        <v>-0.3351206669402735</v>
+        <v>-0.3351206669402749</v>
       </c>
       <c r="J8">
-        <v>0.09750999135085633</v>
+        <v>0.09750999135085528</v>
       </c>
       <c r="K8">
-        <v>0.05355979033687746</v>
+        <v>0.05355979033687783</v>
       </c>
       <c r="L8">
-        <v>0.0150661078483012</v>
+        <v>0.0150661078482992</v>
       </c>
       <c r="M8">
-        <v>-8.881784197001252e-16</v>
+        <v>-1.110223024625157e-15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4190,34 +4190,34 @@
         <v>5.630818913</v>
       </c>
       <c r="D9">
-        <v>10.26734115924688</v>
+        <v>10.26734115924689</v>
       </c>
       <c r="E9">
-        <v>4.831509631746067</v>
+        <v>4.831509631746053</v>
       </c>
       <c r="F9">
-        <v>-3.516654687216349</v>
+        <v>-3.51665468721637</v>
       </c>
       <c r="G9">
-        <v>-1.126530103385533</v>
+        <v>-1.12653010338552</v>
       </c>
       <c r="H9">
-        <v>-0.6702902626275644</v>
+        <v>-0.6702902626275655</v>
       </c>
       <c r="I9">
-        <v>-0.9584780859419433</v>
+        <v>-0.9584780859419453</v>
       </c>
       <c r="J9">
-        <v>-0.4812552096067597</v>
+        <v>-0.4812552096067621</v>
       </c>
       <c r="K9">
-        <v>0.1666390390794897</v>
+        <v>0.16663903907949</v>
       </c>
       <c r="L9">
-        <v>0.004976878084577252</v>
+        <v>0.004976878084574921</v>
       </c>
       <c r="M9">
-        <v>-2.220446049250313e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4234,31 +4234,31 @@
         <v>10.38757805201163</v>
       </c>
       <c r="E10">
-        <v>5.068055547606583</v>
+        <v>5.068055547606571</v>
       </c>
       <c r="F10">
-        <v>-3.270247281409704</v>
+        <v>-3.270247281409725</v>
       </c>
       <c r="G10">
-        <v>-0.8364555309124896</v>
+        <v>-0.8364555309124765</v>
       </c>
       <c r="H10">
-        <v>-0.7614385476507803</v>
+        <v>-0.7614385476507808</v>
       </c>
       <c r="I10">
-        <v>1.94519627691782</v>
+        <v>1.945196276917819</v>
       </c>
       <c r="J10">
-        <v>0.1678873627975397</v>
+        <v>0.167887362797539</v>
       </c>
       <c r="K10">
-        <v>0.001557377169163349</v>
+        <v>0.001557377169164215</v>
       </c>
       <c r="L10">
-        <v>-0.04584857086762706</v>
+        <v>-0.04584857086762772</v>
       </c>
       <c r="M10">
-        <v>-2.220446049250313e-15</v>
+        <v>-1.77635683940025e-15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4272,34 +4272,34 @@
         <v>5.626444266</v>
       </c>
       <c r="D11">
-        <v>-4.403109845381077</v>
+        <v>-4.403109845381078</v>
       </c>
       <c r="E11">
-        <v>1.057151419551248</v>
+        <v>1.057151419551253</v>
       </c>
       <c r="F11">
-        <v>0.9120365741465528</v>
+        <v>0.9120365741465455</v>
       </c>
       <c r="G11">
-        <v>-1.021338852062522</v>
+        <v>-1.021338852062529</v>
       </c>
       <c r="H11">
-        <v>1.712217283867131</v>
+        <v>1.712217283867132</v>
       </c>
       <c r="I11">
-        <v>-0.2195227669596546</v>
+        <v>-0.2195227669596557</v>
       </c>
       <c r="J11">
-        <v>0.2979583574093585</v>
+        <v>0.2979583574093587</v>
       </c>
       <c r="K11">
-        <v>0.2779288227006387</v>
+        <v>0.2779288227006386</v>
       </c>
       <c r="L11">
-        <v>-0.03838695813548552</v>
+        <v>-0.03838695813548498</v>
       </c>
       <c r="M11">
-        <v>1.77635683940025e-15</v>
+        <v>7.771561172376096e-16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4316,31 +4316,31 @@
         <v>5.460146753741578</v>
       </c>
       <c r="E12">
-        <v>-5.964256520505273</v>
+        <v>-5.964256520505302</v>
       </c>
       <c r="F12">
-        <v>-7.078600551115746</v>
+        <v>-7.078600551115705</v>
       </c>
       <c r="G12">
-        <v>6.067208152016802</v>
+        <v>6.067208152016828</v>
       </c>
       <c r="H12">
-        <v>-0.8236016506687195</v>
+        <v>-0.8236016506687147</v>
       </c>
       <c r="I12">
-        <v>-0.06878794387439545</v>
+        <v>-0.06878794387439151</v>
       </c>
       <c r="J12">
-        <v>-0.3025829171694537</v>
+        <v>-0.3025829171694525</v>
       </c>
       <c r="K12">
-        <v>-0.2329157208529039</v>
+        <v>-0.2329157208529058</v>
       </c>
       <c r="L12">
-        <v>-0.1669775401321086</v>
+        <v>-0.1669775401321079</v>
       </c>
       <c r="M12">
-        <v>-3.108624468950438e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4354,34 +4354,34 @@
         <v>5.628967005</v>
       </c>
       <c r="D13">
-        <v>-4.938585257981056</v>
+        <v>-4.938585257981057</v>
       </c>
       <c r="E13">
-        <v>0.1191700264451572</v>
+        <v>0.1191700264451527</v>
       </c>
       <c r="F13">
-        <v>-1.208096836947928</v>
+        <v>-1.208096836947929</v>
       </c>
       <c r="G13">
-        <v>-0.1403623451831274</v>
+        <v>-0.1403623451831253</v>
       </c>
       <c r="H13">
-        <v>0.59220074880947</v>
+        <v>0.592200748809472</v>
       </c>
       <c r="I13">
-        <v>-0.6758689111020373</v>
+        <v>-0.675868911102038</v>
       </c>
       <c r="J13">
-        <v>0.1058525780722794</v>
+        <v>0.1058525780722792</v>
       </c>
       <c r="K13">
-        <v>-0.3776514148931999</v>
+        <v>-0.3776514148932001</v>
       </c>
       <c r="L13">
-        <v>0.05583814130083892</v>
+        <v>0.05583814130083908</v>
       </c>
       <c r="M13">
-        <v>-8.881784197001252e-16</v>
+        <v>-1.360023205165817e-15</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4395,34 +4395,34 @@
         <v>5.629910337</v>
       </c>
       <c r="D14">
-        <v>3.272521708434571</v>
+        <v>3.272521708434573</v>
       </c>
       <c r="E14">
-        <v>-6.985123412621615</v>
+        <v>-6.985123412621618</v>
       </c>
       <c r="F14">
-        <v>-0.4570937014352145</v>
+        <v>-0.4570937014351792</v>
       </c>
       <c r="G14">
-        <v>3.204356691631238</v>
+        <v>3.204356691631248</v>
       </c>
       <c r="H14">
-        <v>-5.128973208266164</v>
+        <v>-5.128973208266166</v>
       </c>
       <c r="I14">
-        <v>-0.3277967106392424</v>
+        <v>-0.3277967106392395</v>
       </c>
       <c r="J14">
-        <v>-0.8587130704789633</v>
+        <v>-0.8587130704789639</v>
       </c>
       <c r="K14">
-        <v>0.1189000033149975</v>
+        <v>0.1189000033149965</v>
       </c>
       <c r="L14">
-        <v>-0.01015631774349127</v>
+        <v>-0.01015631774349113</v>
       </c>
       <c r="M14">
-        <v>-4.440892098500626e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4439,31 +4439,31 @@
         <v>-4.265139959698211</v>
       </c>
       <c r="E15">
-        <v>-0.2142938652972823</v>
+        <v>-0.2142938652972877</v>
       </c>
       <c r="F15">
-        <v>-1.604942469124431</v>
+        <v>-1.604942469124432</v>
       </c>
       <c r="G15">
-        <v>-0.2726758209282792</v>
+        <v>-0.2726758209282743</v>
       </c>
       <c r="H15">
-        <v>-0.332399092001179</v>
+        <v>-0.332399092001177</v>
       </c>
       <c r="I15">
-        <v>0.02203048387371019</v>
+        <v>0.02203048387371052</v>
       </c>
       <c r="J15">
         <v>0.3678562575981028</v>
       </c>
       <c r="K15">
-        <v>-0.001022568657878588</v>
+        <v>-0.00102256865787897</v>
       </c>
       <c r="L15">
-        <v>-0.1384435273050941</v>
+        <v>-0.1384435273050939</v>
       </c>
       <c r="M15">
-        <v>8.881784197001252e-16</v>
+        <v>-2.775557561562891e-17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4477,34 +4477,34 @@
         <v>5.627147537</v>
       </c>
       <c r="D16">
-        <v>-4.635571066572379</v>
+        <v>-4.63557106657238</v>
       </c>
       <c r="E16">
-        <v>0.1015135796340866</v>
+        <v>0.1015135796340838</v>
       </c>
       <c r="F16">
-        <v>-0.9233117202072411</v>
+        <v>-0.9233117202072444</v>
       </c>
       <c r="G16">
-        <v>-0.8027029997136503</v>
+        <v>-0.8027029997136484</v>
       </c>
       <c r="H16">
-        <v>0.3749599404945827</v>
+        <v>0.3749599404945836</v>
       </c>
       <c r="I16">
-        <v>-0.3622295673978037</v>
+        <v>-0.3622295673978047</v>
       </c>
       <c r="J16">
-        <v>0.29582091409102</v>
+        <v>0.2958209140910198</v>
       </c>
       <c r="K16">
-        <v>-0.01214655820948229</v>
+        <v>-0.01214655820948214</v>
       </c>
       <c r="L16">
-        <v>0.06788162292990096</v>
+        <v>0.0678816229299013</v>
       </c>
       <c r="M16">
-        <v>6.661338147750939e-16</v>
+        <v>-5.551115123125783e-16</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4521,31 +4521,31 @@
         <v>-4.767367001532317</v>
       </c>
       <c r="E17">
-        <v>-0.5265159497608828</v>
+        <v>-0.5265159497608863</v>
       </c>
       <c r="F17">
-        <v>-1.149742623907332</v>
+        <v>-1.149742623907334</v>
       </c>
       <c r="G17">
-        <v>-1.008727608037777</v>
+        <v>-1.008727608037774</v>
       </c>
       <c r="H17">
-        <v>0.9891831045165935</v>
+        <v>0.9891831045165939</v>
       </c>
       <c r="I17">
-        <v>-1.297295070065488</v>
+        <v>-1.297295070065489</v>
       </c>
       <c r="J17">
-        <v>0.2000697235692843</v>
+        <v>0.2000697235692842</v>
       </c>
       <c r="K17">
-        <v>-0.1536718972601724</v>
+        <v>-0.1536718972601726</v>
       </c>
       <c r="L17">
-        <v>0.06309526624320266</v>
+        <v>0.0630952662432025</v>
       </c>
       <c r="M17">
-        <v>-6.661338147750939e-16</v>
+        <v>-1.179611963664229e-15</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4559,34 +4559,34 @@
         <v>5.626879797</v>
       </c>
       <c r="D18">
-        <v>-6.253542566796505</v>
+        <v>-6.253542566796507</v>
       </c>
       <c r="E18">
-        <v>-0.7681367347134993</v>
+        <v>-0.7681367347135077</v>
       </c>
       <c r="F18">
-        <v>-2.342336064153192</v>
+        <v>-2.342336064153189</v>
       </c>
       <c r="G18">
-        <v>0.2620962172391841</v>
+        <v>0.2620962172391907</v>
       </c>
       <c r="H18">
-        <v>0.320656770069338</v>
+        <v>0.320656770069341</v>
       </c>
       <c r="I18">
         <v>-1.19497433116804</v>
       </c>
       <c r="J18">
-        <v>-0.3437893003598961</v>
+        <v>-0.343789300359896</v>
       </c>
       <c r="K18">
-        <v>0.03950442525899309</v>
+        <v>0.03950442525899264</v>
       </c>
       <c r="L18">
-        <v>0.05299523400586725</v>
+        <v>0.05299523400586703</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-9.992007221626409e-16</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4600,34 +4600,34 @@
         <v>5.629521358</v>
       </c>
       <c r="D19">
-        <v>-0.2987521610807226</v>
+        <v>-0.2987521610807227</v>
       </c>
       <c r="E19">
-        <v>-6.215138956330194</v>
+        <v>-6.215138956330202</v>
       </c>
       <c r="F19">
-        <v>-2.796838967533799</v>
+        <v>-2.796838967533791</v>
       </c>
       <c r="G19">
-        <v>-3.884613869130379</v>
+        <v>-3.884613869130363</v>
       </c>
       <c r="H19">
-        <v>-2.450395389900608</v>
+        <v>-2.450395389900617</v>
       </c>
       <c r="I19">
-        <v>0.3213000095767364</v>
+        <v>0.3213000095767385</v>
       </c>
       <c r="J19">
-        <v>0.1058262531719802</v>
+        <v>0.1058262531719797</v>
       </c>
       <c r="K19">
-        <v>-0.04429642635741144</v>
+        <v>-0.04429642635741003</v>
       </c>
       <c r="L19">
-        <v>0.05155358539866391</v>
+        <v>0.05155358539866295</v>
       </c>
       <c r="M19">
-        <v>-4.163336342344337e-16</v>
+        <v>-8.881784197001252e-16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4641,34 +4641,34 @@
         <v>5.633355534</v>
       </c>
       <c r="D20">
-        <v>-4.490117478138828</v>
+        <v>-4.490117478138829</v>
       </c>
       <c r="E20">
-        <v>1.198122822168852</v>
+        <v>1.198122822168851</v>
       </c>
       <c r="F20">
-        <v>-0.4238711553144159</v>
+        <v>-0.4238711553144207</v>
       </c>
       <c r="G20">
-        <v>-0.1094066092741381</v>
+        <v>-0.1094066092741383</v>
       </c>
       <c r="H20">
-        <v>0.3158024757207774</v>
+        <v>0.3158024757207796</v>
       </c>
       <c r="I20">
-        <v>0.1388342789704454</v>
+        <v>0.1388342789704449</v>
       </c>
       <c r="J20">
-        <v>0.3351490045620075</v>
+        <v>0.3351490045620076</v>
       </c>
       <c r="K20">
-        <v>0.1422387450602086</v>
+        <v>0.1422387450602081</v>
       </c>
       <c r="L20">
-        <v>-0.06992485765190302</v>
+        <v>-0.06992485765190248</v>
       </c>
       <c r="M20">
-        <v>4.440892098500626e-16</v>
+        <v>-2.775557561562891e-17</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4682,34 +4682,34 @@
         <v>5.625229107</v>
       </c>
       <c r="D21">
-        <v>-5.407769972637896</v>
+        <v>-5.407769972637897</v>
       </c>
       <c r="E21">
-        <v>1.029353774161839</v>
+        <v>1.029353774161836</v>
       </c>
       <c r="F21">
-        <v>-0.8897264603935383</v>
+        <v>-0.8897264603935413</v>
       </c>
       <c r="G21">
-        <v>0.3105431116718215</v>
+        <v>0.3105431116718239</v>
       </c>
       <c r="H21">
-        <v>-0.5664129728480269</v>
+        <v>-0.5664129728480244</v>
       </c>
       <c r="I21">
-        <v>0.2522415096175629</v>
+        <v>0.2522415096175625</v>
       </c>
       <c r="J21">
-        <v>0.3476727945454902</v>
+        <v>0.3476727945454897</v>
       </c>
       <c r="K21">
-        <v>-0.02569296294187023</v>
+        <v>-0.02569296294187083</v>
       </c>
       <c r="L21">
-        <v>-0.117926004870352</v>
+        <v>-0.117926004870351</v>
       </c>
       <c r="M21">
-        <v>-4.440892098500626e-16</v>
+        <v>2.775557561562891e-17</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -4723,34 +4723,34 @@
         <v>5.629099108</v>
       </c>
       <c r="D22">
-        <v>-4.070795226072347</v>
+        <v>-4.070795226072348</v>
       </c>
       <c r="E22">
-        <v>1.025753405974502</v>
+        <v>1.0257534059745</v>
       </c>
       <c r="F22">
-        <v>-0.6907611687261586</v>
+        <v>-0.6907611687261634</v>
       </c>
       <c r="G22">
-        <v>-0.2618530979704258</v>
+        <v>-0.2618530979704247</v>
       </c>
       <c r="H22">
-        <v>0.3742219165684722</v>
+        <v>0.3742219165684742</v>
       </c>
       <c r="I22">
-        <v>0.5820184948375079</v>
+        <v>0.5820184948375076</v>
       </c>
       <c r="J22">
-        <v>0.008598585877597398</v>
+        <v>0.008598585877597299</v>
       </c>
       <c r="K22">
         <v>-0.2862368828662938</v>
       </c>
       <c r="L22">
-        <v>0.1077851873308804</v>
+        <v>0.1077851873308813</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-7.216449660063518e-16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -4764,34 +4764,34 @@
         <v>5.627469814</v>
       </c>
       <c r="D23">
-        <v>-1.324624928236941</v>
+        <v>-1.324624928236942</v>
       </c>
       <c r="E23">
-        <v>-6.408951629520537</v>
+        <v>-6.408951629520542</v>
       </c>
       <c r="F23">
-        <v>-2.701321194396745</v>
+        <v>-2.701321194396741</v>
       </c>
       <c r="G23">
-        <v>-4.97493893290911</v>
+        <v>-4.974938932909096</v>
       </c>
       <c r="H23">
-        <v>-2.552088905370391</v>
+        <v>-2.552088905370402</v>
       </c>
       <c r="I23">
-        <v>0.3328883030569691</v>
+        <v>0.3328883030569712</v>
       </c>
       <c r="J23">
-        <v>0.548455443787402</v>
+        <v>0.5484554437874012</v>
       </c>
       <c r="K23">
-        <v>-0.09536805454952617</v>
+        <v>-0.09536805454952456</v>
       </c>
       <c r="L23">
-        <v>0.02745621885741403</v>
+        <v>0.02745621885741301</v>
       </c>
       <c r="M23">
-        <v>6.106226635438361e-16</v>
+        <v>-8.881784197001252e-16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4805,34 +4805,34 @@
         <v>5.634240271</v>
       </c>
       <c r="D24">
-        <v>-5.004864123002805</v>
+        <v>-5.004864123002806</v>
       </c>
       <c r="E24">
-        <v>0.1946800556019654</v>
+        <v>0.1946800556019649</v>
       </c>
       <c r="F24">
-        <v>-0.3845168148554316</v>
+        <v>-0.3845168148554358</v>
       </c>
       <c r="G24">
-        <v>-0.900969705279396</v>
+        <v>-0.9009697052793942</v>
       </c>
       <c r="H24">
-        <v>-0.8540826729693068</v>
+        <v>-0.8540826729693075</v>
       </c>
       <c r="I24">
         <v>1.179240460220289</v>
       </c>
       <c r="J24">
-        <v>0.2282189536574899</v>
+        <v>0.2282189536574895</v>
       </c>
       <c r="K24">
-        <v>0.2558129366787594</v>
+        <v>0.2558129366787598</v>
       </c>
       <c r="L24">
-        <v>-0.1154341387168226</v>
+        <v>-0.1154341387168216</v>
       </c>
       <c r="M24">
-        <v>8.881784197001252e-16</v>
+        <v>3.885780586188048e-16</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4846,19 +4846,19 @@
         <v>5.631863177</v>
       </c>
       <c r="D25">
-        <v>-6.012396494804688</v>
+        <v>-6.01239649480469</v>
       </c>
       <c r="E25">
-        <v>0.3559140797853163</v>
+        <v>0.3559140797853142</v>
       </c>
       <c r="F25">
-        <v>-0.8075677611896257</v>
+        <v>-0.8075677611896295</v>
       </c>
       <c r="G25">
-        <v>-0.5427252761760918</v>
+        <v>-0.5427252761760881</v>
       </c>
       <c r="H25">
-        <v>-1.30323202768626</v>
+        <v>-1.303232027686259</v>
       </c>
       <c r="I25">
         <v>1.448348634574987</v>
@@ -4870,10 +4870,10 @@
         <v>0.108766510811945</v>
       </c>
       <c r="L25">
-        <v>0.01576431661636978</v>
+        <v>0.01576431661637079</v>
       </c>
       <c r="M25">
-        <v>8.881784197001252e-16</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4887,34 +4887,34 @@
         <v>5.62093788</v>
       </c>
       <c r="D26">
-        <v>-5.632783411580118</v>
+        <v>-5.632783411580119</v>
       </c>
       <c r="E26">
-        <v>1.440450311265028</v>
+        <v>1.440450311265032</v>
       </c>
       <c r="F26">
-        <v>1.271415501900195</v>
+        <v>1.271415501900191</v>
       </c>
       <c r="G26">
-        <v>0.2828027206803914</v>
+        <v>0.2828027206803848</v>
       </c>
       <c r="H26">
-        <v>0.6840852041306446</v>
+        <v>0.6840852041306474</v>
       </c>
       <c r="I26">
-        <v>0.1890465589595987</v>
+        <v>0.1890465589595981</v>
       </c>
       <c r="J26">
-        <v>-0.603381516844533</v>
+        <v>-0.6033815168445326</v>
       </c>
       <c r="K26">
-        <v>0.1296130093385858</v>
+        <v>0.1296130093385855</v>
       </c>
       <c r="L26">
-        <v>-0.1568224500909618</v>
+        <v>-0.1568224500909607</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-7.494005416219807e-16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4931,31 +4931,31 @@
         <v>-6.251843008067723</v>
       </c>
       <c r="E27">
-        <v>1.603385537361489</v>
+        <v>1.603385537361492</v>
       </c>
       <c r="F27">
-        <v>0.5985706958440709</v>
+        <v>0.5985706958440651</v>
       </c>
       <c r="G27">
-        <v>-0.110013745783153</v>
+        <v>-0.1100137457831579</v>
       </c>
       <c r="H27">
-        <v>0.7265292672400683</v>
+        <v>0.7265292672400712</v>
       </c>
       <c r="I27">
-        <v>-0.4302373249927512</v>
+        <v>-0.4302373249927525</v>
       </c>
       <c r="J27">
-        <v>-0.112260684238055</v>
+        <v>-0.1122606842380552</v>
       </c>
       <c r="K27">
-        <v>0.03587947336631309</v>
+        <v>0.03587947336631264</v>
       </c>
       <c r="L27">
-        <v>-0.0397130870227036</v>
+        <v>-0.03971308702270271</v>
       </c>
       <c r="M27">
-        <v>4.440892098500626e-16</v>
+        <v>-6.106226635438361e-16</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4969,34 +4969,34 @@
         <v>5.622090735</v>
       </c>
       <c r="D28">
-        <v>-6.464104843224121</v>
+        <v>-6.464104843224123</v>
       </c>
       <c r="E28">
-        <v>0.5736108794842352</v>
+        <v>0.5736108794842349</v>
       </c>
       <c r="F28">
-        <v>-0.01329477491366557</v>
+        <v>-0.01329477491366659</v>
       </c>
       <c r="G28">
-        <v>0.1832300107736841</v>
+        <v>0.1832300107736819</v>
       </c>
       <c r="H28">
-        <v>0.8175111275607283</v>
+        <v>0.817511127560731</v>
       </c>
       <c r="I28">
-        <v>-0.848309525706562</v>
+        <v>-0.8483095257065632</v>
       </c>
       <c r="J28">
-        <v>-0.399537522692138</v>
+        <v>-0.3995375226921378</v>
       </c>
       <c r="K28">
-        <v>-0.1041777469652563</v>
+        <v>-0.1041777469652568</v>
       </c>
       <c r="L28">
-        <v>-0.02377164851943903</v>
+        <v>-0.02377164851943814</v>
       </c>
       <c r="M28">
-        <v>-4.440892098500626e-16</v>
+        <v>-8.326672684688674e-16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -5013,31 +5013,31 @@
         <v>-5.951577143824422</v>
       </c>
       <c r="E29">
-        <v>1.206558168900568</v>
+        <v>1.20655816890057</v>
       </c>
       <c r="F29">
-        <v>0.4163147373457835</v>
+        <v>0.4163147373457785</v>
       </c>
       <c r="G29">
-        <v>-0.1384780386640394</v>
+        <v>-0.1384780386640437</v>
       </c>
       <c r="H29">
-        <v>0.9510696110191178</v>
+        <v>0.9510696110191206</v>
       </c>
       <c r="I29">
-        <v>-1.044020127991322</v>
+        <v>-1.044020127991324</v>
       </c>
       <c r="J29">
-        <v>0.1294430248411048</v>
+        <v>0.1294430248411051</v>
       </c>
       <c r="K29">
-        <v>0.01151376468174446</v>
+        <v>0.01151376468174429</v>
       </c>
       <c r="L29">
-        <v>-0.1406427500869647</v>
+        <v>-0.1406427500869645</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-1.27675647831893e-15</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -5051,34 +5051,34 @@
         <v>5.622928924</v>
       </c>
       <c r="D30">
-        <v>-7.520922209111841</v>
+        <v>-7.520922209111843</v>
       </c>
       <c r="E30">
-        <v>-0.2602943347473149</v>
+        <v>-0.2602943347473179</v>
       </c>
       <c r="F30">
-        <v>-1.149917731816122</v>
+        <v>-1.149917731816124</v>
       </c>
       <c r="G30">
-        <v>-0.8423657131460027</v>
+        <v>-0.8423657131460018</v>
       </c>
       <c r="H30">
-        <v>1.228834128327762</v>
+        <v>1.228834128327764</v>
       </c>
       <c r="I30">
-        <v>0.2207619105831615</v>
+        <v>0.2207619105831612</v>
       </c>
       <c r="J30">
-        <v>-0.163249449359156</v>
+        <v>-0.1632494493591559</v>
       </c>
       <c r="K30">
-        <v>-0.06117842689309173</v>
+        <v>-0.06117842689309136</v>
       </c>
       <c r="L30">
-        <v>0.08116094379922273</v>
+        <v>0.0811609437992229</v>
       </c>
       <c r="M30">
-        <v>4.440892098500626e-16</v>
+        <v>-3.33066907387547e-16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -5092,34 +5092,34 @@
         <v>5.626615979</v>
       </c>
       <c r="D31">
-        <v>7.560641094753409</v>
+        <v>7.560641094753411</v>
       </c>
       <c r="E31">
-        <v>-4.62034759756568</v>
+        <v>-4.620347597565654</v>
       </c>
       <c r="F31">
-        <v>7.165860215821984</v>
+        <v>7.165860215821997</v>
       </c>
       <c r="G31">
-        <v>-1.101033789554739</v>
+        <v>-1.10103378955476</v>
       </c>
       <c r="H31">
-        <v>0.4319495953947175</v>
+        <v>0.4319495953947087</v>
       </c>
       <c r="I31">
-        <v>0.4121889379634174</v>
+        <v>0.4121889379634194</v>
       </c>
       <c r="J31">
-        <v>-0.888183563163354</v>
+        <v>-0.8881835631633547</v>
       </c>
       <c r="K31">
-        <v>-0.05369894623957016</v>
+        <v>-0.05369894623956901</v>
       </c>
       <c r="L31">
-        <v>0.003375360650180015</v>
+        <v>0.003375360650179404</v>
       </c>
       <c r="M31">
-        <v>-3.108624468950438e-15</v>
+        <v>-6.661338147750939e-16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -5133,34 +5133,34 @@
         <v>5.626640459</v>
       </c>
       <c r="D32">
-        <v>9.833162846851181</v>
+        <v>9.833162846851183</v>
       </c>
       <c r="E32">
-        <v>-2.282169537626848</v>
+        <v>-2.282169537626853</v>
       </c>
       <c r="F32">
-        <v>-1.358938621041113</v>
+        <v>-1.358938621041096</v>
       </c>
       <c r="G32">
         <v>2.120077443671393</v>
       </c>
       <c r="H32">
-        <v>4.67663776320913</v>
+        <v>4.676637763209128</v>
       </c>
       <c r="I32">
-        <v>1.284147105192369</v>
+        <v>1.284147105192371</v>
       </c>
       <c r="J32">
-        <v>0.4275996173182366</v>
+        <v>0.4275996173182384</v>
       </c>
       <c r="K32">
-        <v>-0.2188274162143041</v>
+        <v>-0.2188274162143038</v>
       </c>
       <c r="L32">
-        <v>0.03282393182377619</v>
+        <v>0.03282393182377641</v>
       </c>
       <c r="M32">
-        <v>-2.664535259100376e-15</v>
+        <v>2.775557561562891e-16</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -5177,31 +5177,31 @@
         <v>-7.567100747324718</v>
       </c>
       <c r="E33">
-        <v>0.1921055533348005</v>
+        <v>0.192105553334797</v>
       </c>
       <c r="F33">
-        <v>-0.9586999257794536</v>
+        <v>-0.9586999257794547</v>
       </c>
       <c r="G33">
-        <v>-0.1879617436189075</v>
+        <v>-0.1879617436189062</v>
       </c>
       <c r="H33">
-        <v>0.8042861003040953</v>
+        <v>0.8042861003040983</v>
       </c>
       <c r="I33">
-        <v>0.4173585620854323</v>
+        <v>0.4173585620854324</v>
       </c>
       <c r="J33">
         <v>-0.09792296392363599</v>
       </c>
       <c r="K33">
-        <v>-0.1625622764058043</v>
+        <v>-0.1625622764058048</v>
       </c>
       <c r="L33">
-        <v>0.08944109683987883</v>
+        <v>0.08944109683988044</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-4.163336342344337e-16</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -5215,34 +5215,34 @@
         <v>5.624494188</v>
       </c>
       <c r="D34">
-        <v>-5.692487622461923</v>
+        <v>-5.692487622461922</v>
       </c>
       <c r="E34">
-        <v>0.7669780912250741</v>
+        <v>0.7669780912250812</v>
       </c>
       <c r="F34">
-        <v>2.182883591236819</v>
+        <v>2.182883591236821</v>
       </c>
       <c r="G34">
-        <v>1.2528879154517</v>
+        <v>1.25288791545169</v>
       </c>
       <c r="H34">
-        <v>1.477147459196883</v>
+        <v>1.477147459196886</v>
       </c>
       <c r="I34">
-        <v>0.9856777366424527</v>
+        <v>0.9856777366424522</v>
       </c>
       <c r="J34">
-        <v>-0.9110759363865822</v>
+        <v>-0.9110759363865817</v>
       </c>
       <c r="K34">
-        <v>0.3067596259281204</v>
+        <v>0.3067596259281198</v>
       </c>
       <c r="L34">
-        <v>0.148038168790726</v>
+        <v>0.1480381687907268</v>
       </c>
       <c r="M34">
-        <v>8.881784197001252e-16</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5259,28 +5259,28 @@
         <v>-2.934213161172837</v>
       </c>
       <c r="E35">
-        <v>0.618971124918655</v>
+        <v>0.6189711249186644</v>
       </c>
       <c r="F35">
-        <v>3.642761482379566</v>
+        <v>3.64276148237959</v>
       </c>
       <c r="G35">
-        <v>7.435314870821212</v>
+        <v>7.435314870821201</v>
       </c>
       <c r="H35">
-        <v>-3.077266328638134</v>
+        <v>-3.077266328638125</v>
       </c>
       <c r="I35">
-        <v>-0.09469288564270999</v>
+        <v>-0.09469288564271067</v>
       </c>
       <c r="J35">
-        <v>1.1945670775598</v>
+        <v>1.194567077559798</v>
       </c>
       <c r="K35">
-        <v>0.1246736133366411</v>
+        <v>0.1246736133366368</v>
       </c>
       <c r="L35">
-        <v>0.1908343928854551</v>
+        <v>0.1908343928854577</v>
       </c>
       <c r="M35">
         <v>1.110223024625157e-15</v>
@@ -5297,34 +5297,34 @@
         <v>5.626901664</v>
       </c>
       <c r="D36">
-        <v>2.019898194152627</v>
+        <v>2.019898194152629</v>
       </c>
       <c r="E36">
-        <v>12.52578915631729</v>
+        <v>12.52578915631732</v>
       </c>
       <c r="F36">
-        <v>8.141313518032931</v>
+        <v>8.141313518032891</v>
       </c>
       <c r="G36">
-        <v>1.072363715744461</v>
+        <v>1.072363715744434</v>
       </c>
       <c r="H36">
-        <v>-2.312987319665512</v>
+        <v>-2.312987319665505</v>
       </c>
       <c r="I36">
-        <v>0.04909122839767668</v>
+        <v>0.04909122839767117</v>
       </c>
       <c r="J36">
-        <v>-0.08423213819048156</v>
+        <v>-0.08423213819048563</v>
       </c>
       <c r="K36">
-        <v>-0.3365605518957251</v>
+        <v>-0.3365605518957264</v>
       </c>
       <c r="L36">
-        <v>-0.0800103011318207</v>
+        <v>-0.08001030113182073</v>
       </c>
       <c r="M36">
-        <v>1.332267629550188e-15</v>
+        <v>-3.552713678800501e-15</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -5338,34 +5338,34 @@
         <v>5.622880567</v>
       </c>
       <c r="D37">
-        <v>-6.525027329789437</v>
+        <v>-6.525027329789439</v>
       </c>
       <c r="E37">
-        <v>0.9678742875945382</v>
+        <v>0.9678742875945414</v>
       </c>
       <c r="F37">
         <v>0.8444471003244465</v>
       </c>
       <c r="G37">
-        <v>0.9479061442519408</v>
+        <v>0.9479061442519352</v>
       </c>
       <c r="H37">
-        <v>0.9137117092037816</v>
+        <v>0.9137117092037857</v>
       </c>
       <c r="I37">
-        <v>0.5093032470866026</v>
+        <v>0.5093032470866016</v>
       </c>
       <c r="J37">
-        <v>-0.5028575785459488</v>
+        <v>-0.5028575785459481</v>
       </c>
       <c r="K37">
-        <v>0.07309202283374325</v>
+        <v>0.07309202283374243</v>
       </c>
       <c r="L37">
-        <v>0.0274431464115884</v>
+        <v>0.02744314641159029</v>
       </c>
       <c r="M37">
-        <v>8.881784197001252e-16</v>
+        <v>-6.661338147750939e-16</v>
       </c>
     </row>
   </sheetData>
@@ -5418,34 +5418,34 @@
         <v>52</v>
       </c>
       <c r="B2">
-        <v>0.5534971370729438</v>
+        <v>0.5534971370729435</v>
       </c>
       <c r="C2">
         <v>0.188182141419275</v>
       </c>
       <c r="D2">
-        <v>0.146010293057229</v>
+        <v>0.1460102930572292</v>
       </c>
       <c r="E2">
-        <v>0.05999681015374665</v>
+        <v>0.05999681015374677</v>
       </c>
       <c r="F2">
-        <v>0.04249616585639217</v>
+        <v>0.04249616585639218</v>
       </c>
       <c r="G2">
-        <v>0.00682935218095154</v>
+        <v>0.006829352180951544</v>
       </c>
       <c r="H2">
-        <v>0.002471756778687545</v>
+        <v>0.002471756778687548</v>
       </c>
       <c r="I2">
-        <v>0.0004203341208233445</v>
+        <v>0.0004203341208233454</v>
       </c>
       <c r="J2">
-        <v>9.60093599510571e-05</v>
+        <v>9.600935995105725e-05</v>
       </c>
       <c r="K2">
-        <v>1.387803080171968e-32</v>
+        <v>1.337587350458207e-32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5453,34 +5453,34 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>0.5727580728495699</v>
+        <v>0.572758072849569</v>
       </c>
       <c r="C3">
-        <v>0.2261177962515531</v>
+        <v>0.2261177962515542</v>
       </c>
       <c r="D3">
-        <v>0.06920228717119131</v>
+        <v>0.06920228717119127</v>
       </c>
       <c r="E3">
-        <v>0.06638764999961649</v>
+        <v>0.06638764999961654</v>
       </c>
       <c r="F3">
-        <v>0.04816568490876012</v>
+        <v>0.04816568490876008</v>
       </c>
       <c r="G3">
         <v>0.01129416964036507</v>
       </c>
       <c r="H3">
-        <v>0.005300300858022994</v>
+        <v>0.005300300858023</v>
       </c>
       <c r="I3">
-        <v>0.000644180788124974</v>
+        <v>0.0006441807881249753</v>
       </c>
       <c r="J3">
-        <v>0.0001298575327957523</v>
+        <v>0.0001298575327957526</v>
       </c>
       <c r="K3">
-        <v>2.479375979307756e-32</v>
+        <v>2.617458668217696e-32</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5488,34 +5488,34 @@
         <v>54</v>
       </c>
       <c r="B4">
-        <v>0.5634824135063081</v>
+        <v>0.5634824135063079</v>
       </c>
       <c r="C4">
-        <v>0.2034934840062497</v>
+        <v>0.2034934840062499</v>
       </c>
       <c r="D4">
-        <v>0.09473774784639155</v>
+        <v>0.09473774784639158</v>
       </c>
       <c r="E4">
-        <v>0.07549239745707698</v>
+        <v>0.07549239745707712</v>
       </c>
       <c r="F4">
-        <v>0.03793224419205869</v>
+        <v>0.03793224419205871</v>
       </c>
       <c r="G4">
-        <v>0.0192497941577899</v>
+        <v>0.01924979415778991</v>
       </c>
       <c r="H4">
         <v>0.004325671293920005</v>
       </c>
       <c r="I4">
-        <v>0.001140402414365176</v>
+        <v>0.001140402414365177</v>
       </c>
       <c r="J4">
-        <v>0.0001458451258397269</v>
+        <v>0.0001458451258397268</v>
       </c>
       <c r="K4">
-        <v>6.56898010859014e-33</v>
+        <v>5.867068629225073e-33</v>
       </c>
     </row>
   </sheetData>
